--- a/North Melbourne_stats.xlsx
+++ b/North Melbourne_stats.xlsx
@@ -12916,7 +12916,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -17312,7 +17312,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -17940,7 +17940,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -18568,7 +18568,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -29872,7 +29872,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -31756,7 +31756,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -32384,7 +32384,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -34268,7 +34268,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -35524,7 +35524,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kicks (every)</t>
+          <t>Kicks (O)</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -36152,7 +36152,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Handballs (row)</t>
+          <t>Handballs (O)</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -36780,7 +36780,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Disposals (from)</t>
+          <t>Disposals (O)</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -37408,7 +37408,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kick to HB Ratio (kicks)</t>
+          <t>Kick to HB Ratio (O)</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -38036,7 +38036,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Marks (below)</t>
+          <t>Marks (O)</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -38664,7 +38664,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tackles(is against)</t>
+          <t>Tackles(O)</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -39292,7 +39292,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hitouts</t>
+          <t>Hitouts(O)</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -39920,7 +39920,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Frees For</t>
+          <t>Frees For(O)</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -40548,7 +40548,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Frees Against</t>
+          <t>Frees Against(O)</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -41176,7 +41176,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Goals Kicked</t>
+          <t>Goals Kicked(O)</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -41804,7 +41804,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1(O)</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -42432,7 +42432,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Behinds Kicked</t>
+          <t>Behinds Kicked(O)</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -43060,7 +43060,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rushed Behinds</t>
+          <t>Rushed Behinds(O)</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -43688,7 +43688,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Scoring Shots</t>
+          <t>Scoring Shots(O)</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -44316,7 +44316,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Conversion %</t>
+          <t>Conversion %(O)</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -44944,7 +44944,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Disposals Per Goal</t>
+          <t>Disposals Per Goal(O)</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -45572,7 +45572,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Disposals Per Scoring Shot</t>
+          <t>Disposals Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -46200,7 +46200,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1(O)</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -46828,7 +46828,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1(O)</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -47456,7 +47456,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1(O)</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -48084,7 +48084,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Inside 50s</t>
+          <t>Inside 50s(O)</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -48712,7 +48712,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>In50s Per Scoring Shot</t>
+          <t>In50s Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -49340,7 +49340,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>In50s Per Goal</t>
+          <t>In50s Per Goal(O)</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -49968,7 +49968,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>% In50s Score</t>
+          <t>% In50s Score(O)</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -50596,7 +50596,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>% In50s Goal</t>
+          <t>% In50s Goal(O)</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -51224,7 +51224,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Height(O)</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -51852,7 +51852,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Weight(O)</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -52480,7 +52480,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Age(O)</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -53108,7 +53108,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Av Games</t>
+          <t>Av Games(O)</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -53736,7 +53736,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>&lt;50 Games</t>
+          <t>&lt;50 Games(O)</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -54364,7 +54364,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>50-99 Games</t>
+          <t>50-99 Games(O)</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -54992,7 +54992,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>100-149 Games</t>
+          <t>100-149 Games(O)</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -55620,7 +55620,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>&gt;150 Games</t>
+          <t>&gt;150 Games(O)</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -56248,7 +56248,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Contested Poss</t>
+          <t>Contested Poss(O)</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -56876,7 +56876,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Uncontested Poss</t>
+          <t>Uncontested Poss(O)</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -57504,7 +57504,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Effective Disposals</t>
+          <t>Effective Disposals(O)</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -58132,7 +58132,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Disposal Efficiency</t>
+          <t>Disposal Efficiency(O)</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -58760,7 +58760,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2(O)</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -59388,7 +59388,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Contested Marks</t>
+          <t>Contested Marks(O)</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -60016,7 +60016,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Marks Inside 50</t>
+          <t>Marks Inside 50(O)</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -60644,7 +60644,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2(O)</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -61272,7 +61272,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2(O)</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -61900,7 +61900,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1%ers</t>
+          <t>1%ers(O)</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -62528,7 +62528,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bounces</t>
+          <t>Bounces(O)</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -63156,7 +63156,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2(O)</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -63784,7 +63784,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Goal Assist %</t>
+          <t>Goal Assist %(O)</t>
         </is>
       </c>
       <c r="B102" t="n">

--- a/North Melbourne_stats.xlsx
+++ b/North Melbourne_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GZ102"/>
+  <dimension ref="A1:HB102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,6 +980,12 @@
       <c r="GZ1" t="n">
         <v>9934</v>
       </c>
+      <c r="HA1" t="n">
+        <v>10132</v>
+      </c>
+      <c r="HB1" t="n">
+        <v>10137</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1608,6 +1614,12 @@
       <c r="GZ2" t="n">
         <v>2020</v>
       </c>
+      <c r="HA2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2236,6 +2248,12 @@
       <c r="GZ3" t="n">
         <v>1</v>
       </c>
+      <c r="HA3" t="n">
+        <v>2</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2864,6 +2882,12 @@
       <c r="GZ4" t="n">
         <v>0</v>
       </c>
+      <c r="HA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3492,6 +3516,12 @@
       <c r="GZ5" t="n">
         <v>0</v>
       </c>
+      <c r="HA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4120,6 +4150,12 @@
       <c r="GZ6" t="n">
         <v>56</v>
       </c>
+      <c r="HA6" t="n">
+        <v>80</v>
+      </c>
+      <c r="HB6" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4748,6 +4784,12 @@
       <c r="GZ7" t="n">
         <v>54</v>
       </c>
+      <c r="HA7" t="n">
+        <v>60</v>
+      </c>
+      <c r="HB7" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5376,6 +5418,12 @@
       <c r="GZ8" t="n">
         <v>2</v>
       </c>
+      <c r="HA8" t="n">
+        <v>20</v>
+      </c>
+      <c r="HB8" t="n">
+        <v>-11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6004,6 +6052,12 @@
       <c r="GZ9" t="n">
         <v>1</v>
       </c>
+      <c r="HA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6632,6 +6686,12 @@
       <c r="GZ10" t="n">
         <v>15</v>
       </c>
+      <c r="HA10" t="n">
+        <v>9</v>
+      </c>
+      <c r="HB10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7260,6 +7320,12 @@
       <c r="GZ11" t="n">
         <v>155</v>
       </c>
+      <c r="HA11" t="n">
+        <v>174</v>
+      </c>
+      <c r="HB11" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7888,6 +7954,12 @@
       <c r="GZ12" t="n">
         <v>119</v>
       </c>
+      <c r="HA12" t="n">
+        <v>147</v>
+      </c>
+      <c r="HB12" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8516,6 +8588,12 @@
       <c r="GZ13" t="n">
         <v>274</v>
       </c>
+      <c r="HA13" t="n">
+        <v>321</v>
+      </c>
+      <c r="HB13" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9144,6 +9222,12 @@
       <c r="GZ14" t="n">
         <v>1.3</v>
       </c>
+      <c r="HA14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="HB14" t="n">
+        <v>1.11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9772,6 +9856,12 @@
       <c r="GZ15" t="n">
         <v>51</v>
       </c>
+      <c r="HA15" t="n">
+        <v>60</v>
+      </c>
+      <c r="HB15" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10400,6 +10490,12 @@
       <c r="GZ16" t="n">
         <v>51</v>
       </c>
+      <c r="HA16" t="n">
+        <v>57</v>
+      </c>
+      <c r="HB16" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11028,6 +11124,12 @@
       <c r="GZ17" t="n">
         <v>28</v>
       </c>
+      <c r="HA17" t="n">
+        <v>51</v>
+      </c>
+      <c r="HB17" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11656,6 +11758,12 @@
       <c r="GZ18" t="n">
         <v>21</v>
       </c>
+      <c r="HA18" t="n">
+        <v>22</v>
+      </c>
+      <c r="HB18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12284,6 +12392,12 @@
       <c r="GZ19" t="n">
         <v>17</v>
       </c>
+      <c r="HA19" t="n">
+        <v>10</v>
+      </c>
+      <c r="HB19" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12912,6 +13026,12 @@
       <c r="GZ20" t="n">
         <v>8</v>
       </c>
+      <c r="HA20" t="n">
+        <v>12</v>
+      </c>
+      <c r="HB20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13540,6 +13660,12 @@
       <c r="GZ21" t="n">
         <v>8</v>
       </c>
+      <c r="HA21" t="n">
+        <v>8</v>
+      </c>
+      <c r="HB21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14168,6 +14294,12 @@
       <c r="GZ22" t="n">
         <v>7</v>
       </c>
+      <c r="HA22" t="n">
+        <v>6</v>
+      </c>
+      <c r="HB22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14796,6 +14928,12 @@
       <c r="GZ23" t="n">
         <v>1</v>
       </c>
+      <c r="HA23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HB23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15424,6 +15562,12 @@
       <c r="GZ24" t="n">
         <v>16</v>
       </c>
+      <c r="HA24" t="n">
+        <v>20</v>
+      </c>
+      <c r="HB24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16052,6 +16196,12 @@
       <c r="GZ25" t="n">
         <v>50</v>
       </c>
+      <c r="HA25" t="n">
+        <v>60</v>
+      </c>
+      <c r="HB25" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16680,6 +16830,12 @@
       <c r="GZ26" t="n">
         <v>34.25</v>
       </c>
+      <c r="HA26" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="HB26" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17308,6 +17464,12 @@
       <c r="GZ27" t="n">
         <v>17.12</v>
       </c>
+      <c r="HA27" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="HB27" t="n">
+        <v>13.6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17936,6 +18098,12 @@
       <c r="GZ28" t="n">
         <v>30</v>
       </c>
+      <c r="HA28" t="n">
+        <v>44</v>
+      </c>
+      <c r="HB28" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18564,6 +18732,12 @@
       <c r="GZ29" t="n">
         <v>46</v>
       </c>
+      <c r="HA29" t="n">
+        <v>37</v>
+      </c>
+      <c r="HB29" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19192,6 +19366,12 @@
       <c r="GZ30" t="n">
         <v>30</v>
       </c>
+      <c r="HA30" t="n">
+        <v>30</v>
+      </c>
+      <c r="HB30" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19820,6 +20000,12 @@
       <c r="GZ31" t="n">
         <v>44</v>
       </c>
+      <c r="HA31" t="n">
+        <v>43</v>
+      </c>
+      <c r="HB31" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20448,6 +20634,12 @@
       <c r="GZ32" t="n">
         <v>2.75</v>
       </c>
+      <c r="HA32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="HB32" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21076,6 +21268,12 @@
       <c r="GZ33" t="n">
         <v>5.5</v>
       </c>
+      <c r="HA33" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="HB33" t="n">
+        <v>4.88</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21704,6 +21902,12 @@
       <c r="GZ34" t="n">
         <v>34.1</v>
       </c>
+      <c r="HA34" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="HB34" t="n">
+        <v>48.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22332,6 +22536,12 @@
       <c r="GZ35" t="n">
         <v>18.2</v>
       </c>
+      <c r="HA35" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="HB35" t="n">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22960,6 +23170,12 @@
       <c r="GZ36" t="n">
         <v>189</v>
       </c>
+      <c r="HA36" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="HB36" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23588,6 +23804,12 @@
       <c r="GZ37" t="n">
         <v>87.7</v>
       </c>
+      <c r="HA37" t="n">
+        <v>87</v>
+      </c>
+      <c r="HB37" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24216,6 +24438,12 @@
       <c r="GZ38" t="n">
         <v>26.16</v>
       </c>
+      <c r="HA38" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="HB38" t="n">
+        <v>26.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24844,6 +25072,12 @@
       <c r="GZ39" t="n">
         <v>108.6</v>
       </c>
+      <c r="HA39" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="HB39" t="n">
+        <v>102.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25472,6 +25706,12 @@
       <c r="GZ40" t="n">
         <v>6</v>
       </c>
+      <c r="HA40" t="n">
+        <v>5</v>
+      </c>
+      <c r="HB40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26100,6 +26340,12 @@
       <c r="GZ41" t="n">
         <v>4</v>
       </c>
+      <c r="HA41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HB41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26728,6 +26974,12 @@
       <c r="GZ42" t="n">
         <v>6</v>
       </c>
+      <c r="HA42" t="n">
+        <v>4</v>
+      </c>
+      <c r="HB42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27356,6 +27608,12 @@
       <c r="GZ43" t="n">
         <v>6</v>
       </c>
+      <c r="HA43" t="n">
+        <v>8</v>
+      </c>
+      <c r="HB43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27984,6 +28242,12 @@
       <c r="GZ44" t="n">
         <v>130</v>
       </c>
+      <c r="HA44" t="n">
+        <v>120</v>
+      </c>
+      <c r="HB44" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28612,6 +28876,12 @@
       <c r="GZ45" t="n">
         <v>144</v>
       </c>
+      <c r="HA45" t="n">
+        <v>192</v>
+      </c>
+      <c r="HB45" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29240,6 +29510,12 @@
       <c r="GZ46" t="n">
         <v>195</v>
       </c>
+      <c r="HA46" t="n">
+        <v>239</v>
+      </c>
+      <c r="HB46" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29868,6 +30144,12 @@
       <c r="GZ47" t="n">
         <v>71.2</v>
       </c>
+      <c r="HA47" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="HB47" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30496,6 +30778,12 @@
       <c r="GZ48" t="n">
         <v>46</v>
       </c>
+      <c r="HA48" t="n">
+        <v>37</v>
+      </c>
+      <c r="HB48" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31124,6 +31412,12 @@
       <c r="GZ49" t="n">
         <v>6</v>
       </c>
+      <c r="HA49" t="n">
+        <v>8</v>
+      </c>
+      <c r="HB49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31752,6 +32046,12 @@
       <c r="GZ50" t="n">
         <v>12</v>
       </c>
+      <c r="HA50" t="n">
+        <v>10</v>
+      </c>
+      <c r="HB50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32380,6 +32680,12 @@
       <c r="GZ51" t="n">
         <v>30</v>
       </c>
+      <c r="HA51" t="n">
+        <v>44</v>
+      </c>
+      <c r="HB51" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33008,6 +33314,12 @@
       <c r="GZ52" t="n">
         <v>30</v>
       </c>
+      <c r="HA52" t="n">
+        <v>30</v>
+      </c>
+      <c r="HB52" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33636,6 +33948,12 @@
       <c r="GZ53" t="n">
         <v>40</v>
       </c>
+      <c r="HA53" t="n">
+        <v>37</v>
+      </c>
+      <c r="HB53" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34264,6 +34582,12 @@
       <c r="GZ54" t="n">
         <v>1</v>
       </c>
+      <c r="HA54" t="n">
+        <v>8</v>
+      </c>
+      <c r="HB54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -34892,6 +35216,12 @@
       <c r="GZ55" t="n">
         <v>8</v>
       </c>
+      <c r="HA55" t="n">
+        <v>8</v>
+      </c>
+      <c r="HB55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35520,6 +35850,12 @@
       <c r="GZ56" t="n">
         <v>100</v>
       </c>
+      <c r="HA56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HB56" t="n">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36148,6 +36484,12 @@
       <c r="GZ57" t="n">
         <v>167</v>
       </c>
+      <c r="HA57" t="n">
+        <v>142</v>
+      </c>
+      <c r="HB57" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36776,6 +37118,12 @@
       <c r="GZ58" t="n">
         <v>133</v>
       </c>
+      <c r="HA58" t="n">
+        <v>117</v>
+      </c>
+      <c r="HB58" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37404,6 +37752,12 @@
       <c r="GZ59" t="n">
         <v>300</v>
       </c>
+      <c r="HA59" t="n">
+        <v>259</v>
+      </c>
+      <c r="HB59" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38032,6 +38386,12 @@
       <c r="GZ60" t="n">
         <v>1.26</v>
       </c>
+      <c r="HA60" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="HB60" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -38660,6 +39020,12 @@
       <c r="GZ61" t="n">
         <v>51</v>
       </c>
+      <c r="HA61" t="n">
+        <v>43</v>
+      </c>
+      <c r="HB61" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -39288,6 +39654,12 @@
       <c r="GZ62" t="n">
         <v>72</v>
       </c>
+      <c r="HA62" t="n">
+        <v>64</v>
+      </c>
+      <c r="HB62" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -39916,6 +40288,12 @@
       <c r="GZ63" t="n">
         <v>26</v>
       </c>
+      <c r="HA63" t="n">
+        <v>35</v>
+      </c>
+      <c r="HB63" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -40544,6 +40922,12 @@
       <c r="GZ64" t="n">
         <v>17</v>
       </c>
+      <c r="HA64" t="n">
+        <v>10</v>
+      </c>
+      <c r="HB64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41172,6 +41556,12 @@
       <c r="GZ65" t="n">
         <v>21</v>
       </c>
+      <c r="HA65" t="n">
+        <v>22</v>
+      </c>
+      <c r="HB65" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41800,6 +42190,12 @@
       <c r="GZ66" t="n">
         <v>7</v>
       </c>
+      <c r="HA66" t="n">
+        <v>8</v>
+      </c>
+      <c r="HB66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -42428,6 +42824,12 @@
       <c r="GZ67" t="n">
         <v>5</v>
       </c>
+      <c r="HA67" t="n">
+        <v>5</v>
+      </c>
+      <c r="HB67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43056,6 +43458,12 @@
       <c r="GZ68" t="n">
         <v>11</v>
       </c>
+      <c r="HA68" t="n">
+        <v>10</v>
+      </c>
+      <c r="HB68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -43684,6 +44092,12 @@
       <c r="GZ69" t="n">
         <v>1</v>
       </c>
+      <c r="HA69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HB69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -44312,6 +44726,12 @@
       <c r="GZ70" t="n">
         <v>19</v>
       </c>
+      <c r="HA70" t="n">
+        <v>20</v>
+      </c>
+      <c r="HB70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -44940,6 +45360,12 @@
       <c r="GZ71" t="n">
         <v>36.8</v>
       </c>
+      <c r="HA71" t="n">
+        <v>40</v>
+      </c>
+      <c r="HB71" t="n">
+        <v>47.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -45568,6 +45994,12 @@
       <c r="GZ72" t="n">
         <v>42.86</v>
       </c>
+      <c r="HA72" t="n">
+        <v>32.38</v>
+      </c>
+      <c r="HB72" t="n">
+        <v>26.4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -46196,6 +46628,12 @@
       <c r="GZ73" t="n">
         <v>15.79</v>
       </c>
+      <c r="HA73" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="HB73" t="n">
+        <v>12.57</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -46824,6 +47262,12 @@
       <c r="GZ74" t="n">
         <v>25</v>
       </c>
+      <c r="HA74" t="n">
+        <v>36</v>
+      </c>
+      <c r="HB74" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -47452,6 +47896,12 @@
       <c r="GZ75" t="n">
         <v>50</v>
       </c>
+      <c r="HA75" t="n">
+        <v>41</v>
+      </c>
+      <c r="HB75" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48080,6 +48530,12 @@
       <c r="GZ76" t="n">
         <v>36</v>
       </c>
+      <c r="HA76" t="n">
+        <v>29</v>
+      </c>
+      <c r="HB76" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -48708,6 +49164,12 @@
       <c r="GZ77" t="n">
         <v>40</v>
       </c>
+      <c r="HA77" t="n">
+        <v>38</v>
+      </c>
+      <c r="HB77" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -49336,6 +49798,12 @@
       <c r="GZ78" t="n">
         <v>2.11</v>
       </c>
+      <c r="HA78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="HB78" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -49964,6 +50432,12 @@
       <c r="GZ79" t="n">
         <v>5.71</v>
       </c>
+      <c r="HA79" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="HB79" t="n">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -50592,6 +51066,12 @@
       <c r="GZ80" t="n">
         <v>45</v>
       </c>
+      <c r="HA80" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="HB80" t="n">
+        <v>43.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -51220,6 +51700,12 @@
       <c r="GZ81" t="n">
         <v>17.5</v>
       </c>
+      <c r="HA81" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="HB81" t="n">
+        <v>24.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -51848,6 +52334,12 @@
       <c r="GZ82" t="n">
         <v>187.1</v>
       </c>
+      <c r="HA82" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="HB82" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -52476,6 +52968,12 @@
       <c r="GZ83" t="n">
         <v>84.8</v>
       </c>
+      <c r="HA83" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="HB83" t="n">
+        <v>84.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -53104,6 +53602,12 @@
       <c r="GZ84" t="n">
         <v>25.16</v>
       </c>
+      <c r="HA84" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="HB84" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -53732,6 +54236,12 @@
       <c r="GZ85" t="n">
         <v>89.90000000000001</v>
       </c>
+      <c r="HA85" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="HB85" t="n">
+        <v>84.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -54360,6 +54870,12 @@
       <c r="GZ86" t="n">
         <v>8</v>
       </c>
+      <c r="HA86" t="n">
+        <v>7</v>
+      </c>
+      <c r="HB86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -54988,6 +55504,12 @@
       <c r="GZ87" t="n">
         <v>6</v>
       </c>
+      <c r="HA87" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -55616,6 +56138,12 @@
       <c r="GZ88" t="n">
         <v>4</v>
       </c>
+      <c r="HA88" t="n">
+        <v>6</v>
+      </c>
+      <c r="HB88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -56244,6 +56772,12 @@
       <c r="GZ89" t="n">
         <v>4</v>
       </c>
+      <c r="HA89" t="n">
+        <v>6</v>
+      </c>
+      <c r="HB89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -56872,6 +57406,12 @@
       <c r="GZ90" t="n">
         <v>125</v>
       </c>
+      <c r="HA90" t="n">
+        <v>118</v>
+      </c>
+      <c r="HB90" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -57500,6 +58040,12 @@
       <c r="GZ91" t="n">
         <v>163</v>
       </c>
+      <c r="HA91" t="n">
+        <v>138</v>
+      </c>
+      <c r="HB91" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -58128,6 +58674,12 @@
       <c r="GZ92" t="n">
         <v>196</v>
       </c>
+      <c r="HA92" t="n">
+        <v>177</v>
+      </c>
+      <c r="HB92" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -58756,6 +59308,12 @@
       <c r="GZ93" t="n">
         <v>65.3</v>
       </c>
+      <c r="HA93" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="HB93" t="n">
+        <v>70.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -59384,6 +59942,12 @@
       <c r="GZ94" t="n">
         <v>50</v>
       </c>
+      <c r="HA94" t="n">
+        <v>41</v>
+      </c>
+      <c r="HB94" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -60012,6 +60576,12 @@
       <c r="GZ95" t="n">
         <v>8</v>
       </c>
+      <c r="HA95" t="n">
+        <v>8</v>
+      </c>
+      <c r="HB95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -60640,6 +61210,12 @@
       <c r="GZ96" t="n">
         <v>13</v>
       </c>
+      <c r="HA96" t="n">
+        <v>5</v>
+      </c>
+      <c r="HB96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -61268,6 +61844,12 @@
       <c r="GZ97" t="n">
         <v>25</v>
       </c>
+      <c r="HA97" t="n">
+        <v>36</v>
+      </c>
+      <c r="HB97" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -61896,6 +62478,12 @@
       <c r="GZ98" t="n">
         <v>36</v>
       </c>
+      <c r="HA98" t="n">
+        <v>29</v>
+      </c>
+      <c r="HB98" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -62524,6 +63112,12 @@
       <c r="GZ99" t="n">
         <v>47</v>
       </c>
+      <c r="HA99" t="n">
+        <v>41</v>
+      </c>
+      <c r="HB99" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -63152,6 +63746,12 @@
       <c r="GZ100" t="n">
         <v>3</v>
       </c>
+      <c r="HA100" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -63780,6 +64380,12 @@
       <c r="GZ101" t="n">
         <v>5</v>
       </c>
+      <c r="HA101" t="n">
+        <v>5</v>
+      </c>
+      <c r="HB101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -64408,8 +65014,14 @@
       <c r="GZ102" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="HA102" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="HB102" t="n">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/North Melbourne_stats.xlsx
+++ b/North Melbourne_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HB102"/>
+  <dimension ref="A1:HC102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,6 +986,9 @@
       <c r="HB1" t="n">
         <v>10137</v>
       </c>
+      <c r="HC1" t="n">
+        <v>10152</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1620,6 +1623,9 @@
       <c r="HB2" t="n">
         <v>2020</v>
       </c>
+      <c r="HC2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2254,6 +2260,9 @@
       <c r="HB3" t="n">
         <v>3</v>
       </c>
+      <c r="HC3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2888,6 +2897,9 @@
       <c r="HB4" t="n">
         <v>0</v>
       </c>
+      <c r="HC4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3522,6 +3534,9 @@
       <c r="HB5" t="n">
         <v>1</v>
       </c>
+      <c r="HC5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4156,6 +4171,9 @@
       <c r="HB6" t="n">
         <v>60</v>
       </c>
+      <c r="HC6" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4790,6 +4808,9 @@
       <c r="HB7" t="n">
         <v>71</v>
       </c>
+      <c r="HC7" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5424,6 +5445,9 @@
       <c r="HB8" t="n">
         <v>-11</v>
       </c>
+      <c r="HC8" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6058,6 +6082,9 @@
       <c r="HB9" t="n">
         <v>0</v>
       </c>
+      <c r="HC9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6692,6 +6719,9 @@
       <c r="HB10" t="n">
         <v>16</v>
       </c>
+      <c r="HC10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7326,6 +7356,9 @@
       <c r="HB11" t="n">
         <v>143</v>
       </c>
+      <c r="HC11" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7960,6 +7993,9 @@
       <c r="HB12" t="n">
         <v>129</v>
       </c>
+      <c r="HC12" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8594,6 +8630,9 @@
       <c r="HB13" t="n">
         <v>272</v>
       </c>
+      <c r="HC13" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9228,6 +9267,9 @@
       <c r="HB14" t="n">
         <v>1.11</v>
       </c>
+      <c r="HC14" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9862,6 +9904,9 @@
       <c r="HB15" t="n">
         <v>45</v>
       </c>
+      <c r="HC15" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10496,6 +10541,9 @@
       <c r="HB16" t="n">
         <v>52</v>
       </c>
+      <c r="HC16" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11130,6 +11178,9 @@
       <c r="HB17" t="n">
         <v>35</v>
       </c>
+      <c r="HC17" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11764,6 +11815,9 @@
       <c r="HB18" t="n">
         <v>23</v>
       </c>
+      <c r="HC18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12398,6 +12452,9 @@
       <c r="HB19" t="n">
         <v>14</v>
       </c>
+      <c r="HC19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13032,6 +13089,9 @@
       <c r="HB20" t="n">
         <v>8</v>
       </c>
+      <c r="HC20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13666,6 +13726,9 @@
       <c r="HB21" t="n">
         <v>5</v>
       </c>
+      <c r="HC21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14300,6 +14363,9 @@
       <c r="HB22" t="n">
         <v>11</v>
       </c>
+      <c r="HC22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14934,6 +15000,9 @@
       <c r="HB23" t="n">
         <v>1</v>
       </c>
+      <c r="HC23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15568,6 +15637,9 @@
       <c r="HB24" t="n">
         <v>20</v>
       </c>
+      <c r="HC24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16202,6 +16274,9 @@
       <c r="HB25" t="n">
         <v>40</v>
       </c>
+      <c r="HC25" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16836,6 +16911,9 @@
       <c r="HB26" t="n">
         <v>34</v>
       </c>
+      <c r="HC26" t="n">
+        <v>41.12</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17470,6 +17548,9 @@
       <c r="HB27" t="n">
         <v>13.6</v>
       </c>
+      <c r="HC27" t="n">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18104,6 +18185,9 @@
       <c r="HB28" t="n">
         <v>32</v>
       </c>
+      <c r="HC28" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18738,6 +18822,9 @@
       <c r="HB29" t="n">
         <v>40</v>
       </c>
+      <c r="HC29" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19372,6 +19459,9 @@
       <c r="HB30" t="n">
         <v>31</v>
       </c>
+      <c r="HC30" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20006,6 +20096,9 @@
       <c r="HB31" t="n">
         <v>39</v>
       </c>
+      <c r="HC31" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20640,6 +20733,9 @@
       <c r="HB32" t="n">
         <v>1.95</v>
       </c>
+      <c r="HC32" t="n">
+        <v>2.29</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21274,6 +21370,9 @@
       <c r="HB33" t="n">
         <v>4.88</v>
       </c>
+      <c r="HC33" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21908,6 +22007,9 @@
       <c r="HB34" t="n">
         <v>48.7</v>
       </c>
+      <c r="HC34" t="n">
+        <v>40.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22542,6 +22644,9 @@
       <c r="HB35" t="n">
         <v>20.5</v>
       </c>
+      <c r="HC35" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23176,6 +23281,9 @@
       <c r="HB36" t="n">
         <v>188.7</v>
       </c>
+      <c r="HC36" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23810,6 +23918,9 @@
       <c r="HB37" t="n">
         <v>87.5</v>
       </c>
+      <c r="HC37" t="n">
+        <v>86.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24444,6 +24555,9 @@
       <c r="HB38" t="n">
         <v>26.24</v>
       </c>
+      <c r="HC38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25078,6 +25192,9 @@
       <c r="HB39" t="n">
         <v>102.7</v>
       </c>
+      <c r="HC39" t="n">
+        <v>98.90000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25712,6 +25829,9 @@
       <c r="HB40" t="n">
         <v>6</v>
       </c>
+      <c r="HC40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26346,6 +26466,9 @@
       <c r="HB41" t="n">
         <v>5</v>
       </c>
+      <c r="HC41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26980,6 +27103,9 @@
       <c r="HB42" t="n">
         <v>4</v>
       </c>
+      <c r="HC42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27614,6 +27740,9 @@
       <c r="HB43" t="n">
         <v>7</v>
       </c>
+      <c r="HC43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28248,6 +28377,9 @@
       <c r="HB44" t="n">
         <v>120</v>
       </c>
+      <c r="HC44" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28882,6 +29014,9 @@
       <c r="HB45" t="n">
         <v>155</v>
       </c>
+      <c r="HC45" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29516,6 +29651,9 @@
       <c r="HB46" t="n">
         <v>193</v>
       </c>
+      <c r="HC46" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30150,6 +30288,9 @@
       <c r="HB47" t="n">
         <v>71</v>
       </c>
+      <c r="HC47" t="n">
+        <v>68.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30784,6 +30925,9 @@
       <c r="HB48" t="n">
         <v>40</v>
       </c>
+      <c r="HC48" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31418,6 +31562,9 @@
       <c r="HB49" t="n">
         <v>10</v>
       </c>
+      <c r="HC49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32052,6 +32199,9 @@
       <c r="HB50" t="n">
         <v>12</v>
       </c>
+      <c r="HC50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32686,6 +32836,9 @@
       <c r="HB51" t="n">
         <v>32</v>
       </c>
+      <c r="HC51" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33320,6 +33473,9 @@
       <c r="HB52" t="n">
         <v>31</v>
       </c>
+      <c r="HC52" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33954,6 +34110,9 @@
       <c r="HB53" t="n">
         <v>42</v>
       </c>
+      <c r="HC53" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34588,6 +34747,9 @@
       <c r="HB54" t="n">
         <v>7</v>
       </c>
+      <c r="HC54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35222,6 +35384,9 @@
       <c r="HB55" t="n">
         <v>5</v>
       </c>
+      <c r="HC55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35856,6 +36021,9 @@
       <c r="HB56" t="n">
         <v>62.5</v>
       </c>
+      <c r="HC56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36490,6 +36658,9 @@
       <c r="HB57" t="n">
         <v>155</v>
       </c>
+      <c r="HC57" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37124,6 +37295,9 @@
       <c r="HB58" t="n">
         <v>109</v>
       </c>
+      <c r="HC58" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37758,6 +37932,9 @@
       <c r="HB59" t="n">
         <v>264</v>
       </c>
+      <c r="HC59" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38392,6 +38569,9 @@
       <c r="HB60" t="n">
         <v>1.42</v>
       </c>
+      <c r="HC60" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39026,6 +39206,9 @@
       <c r="HB61" t="n">
         <v>57</v>
       </c>
+      <c r="HC61" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -39660,6 +39843,9 @@
       <c r="HB62" t="n">
         <v>53</v>
       </c>
+      <c r="HC62" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40294,6 +40480,9 @@
       <c r="HB63" t="n">
         <v>23</v>
       </c>
+      <c r="HC63" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -40928,6 +41117,9 @@
       <c r="HB64" t="n">
         <v>14</v>
       </c>
+      <c r="HC64" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41562,6 +41754,9 @@
       <c r="HB65" t="n">
         <v>23</v>
       </c>
+      <c r="HC65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -42196,6 +42391,9 @@
       <c r="HB66" t="n">
         <v>10</v>
       </c>
+      <c r="HC66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -42830,6 +43028,9 @@
       <c r="HB67" t="n">
         <v>7</v>
       </c>
+      <c r="HC67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43464,6 +43665,9 @@
       <c r="HB68" t="n">
         <v>8</v>
       </c>
+      <c r="HC68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -44098,6 +44302,9 @@
       <c r="HB69" t="n">
         <v>3</v>
       </c>
+      <c r="HC69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -44732,6 +44939,9 @@
       <c r="HB70" t="n">
         <v>21</v>
       </c>
+      <c r="HC70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -45366,6 +45576,9 @@
       <c r="HB71" t="n">
         <v>47.6</v>
       </c>
+      <c r="HC71" t="n">
+        <v>44.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -46000,6 +46213,9 @@
       <c r="HB72" t="n">
         <v>26.4</v>
       </c>
+      <c r="HC72" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -46634,6 +46850,9 @@
       <c r="HB73" t="n">
         <v>12.57</v>
       </c>
+      <c r="HC73" t="n">
+        <v>14.67</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47268,6 +47487,9 @@
       <c r="HB74" t="n">
         <v>26</v>
       </c>
+      <c r="HC74" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -47902,6 +48124,9 @@
       <c r="HB75" t="n">
         <v>35</v>
       </c>
+      <c r="HC75" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48536,6 +48761,9 @@
       <c r="HB76" t="n">
         <v>30</v>
       </c>
+      <c r="HC76" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -49170,6 +49398,9 @@
       <c r="HB77" t="n">
         <v>41</v>
       </c>
+      <c r="HC77" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -49804,6 +50035,9 @@
       <c r="HB78" t="n">
         <v>1.95</v>
       </c>
+      <c r="HC78" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -50438,6 +50672,9 @@
       <c r="HB79" t="n">
         <v>4.1</v>
       </c>
+      <c r="HC79" t="n">
+        <v>5.62</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -51072,6 +51309,9 @@
       <c r="HB80" t="n">
         <v>43.9</v>
       </c>
+      <c r="HC80" t="n">
+        <v>37.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -51706,6 +51946,9 @@
       <c r="HB81" t="n">
         <v>24.4</v>
       </c>
+      <c r="HC81" t="n">
+        <v>17.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -52340,6 +52583,9 @@
       <c r="HB82" t="n">
         <v>187</v>
       </c>
+      <c r="HC82" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -52974,6 +53220,9 @@
       <c r="HB83" t="n">
         <v>84.90000000000001</v>
       </c>
+      <c r="HC83" t="n">
+        <v>87.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -53608,6 +53857,9 @@
       <c r="HB84" t="n">
         <v>25</v>
       </c>
+      <c r="HC84" t="n">
+        <v>27.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -54242,6 +54494,9 @@
       <c r="HB85" t="n">
         <v>84.7</v>
       </c>
+      <c r="HC85" t="n">
+        <v>137.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -54876,6 +55131,9 @@
       <c r="HB86" t="n">
         <v>7</v>
       </c>
+      <c r="HC86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -55510,6 +55768,9 @@
       <c r="HB87" t="n">
         <v>7</v>
       </c>
+      <c r="HC87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -56144,6 +56405,9 @@
       <c r="HB88" t="n">
         <v>5</v>
       </c>
+      <c r="HC88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -56778,6 +57042,9 @@
       <c r="HB89" t="n">
         <v>3</v>
       </c>
+      <c r="HC89" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -57412,6 +57679,9 @@
       <c r="HB90" t="n">
         <v>110</v>
       </c>
+      <c r="HC90" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -58046,6 +58316,9 @@
       <c r="HB91" t="n">
         <v>139</v>
       </c>
+      <c r="HC91" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -58680,6 +58953,9 @@
       <c r="HB92" t="n">
         <v>185</v>
       </c>
+      <c r="HC92" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -59314,6 +59590,9 @@
       <c r="HB93" t="n">
         <v>70.09999999999999</v>
       </c>
+      <c r="HC93" t="n">
+        <v>63.6</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -59948,6 +60227,9 @@
       <c r="HB94" t="n">
         <v>35</v>
       </c>
+      <c r="HC94" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -60582,6 +60864,9 @@
       <c r="HB95" t="n">
         <v>9</v>
       </c>
+      <c r="HC95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -61216,6 +61501,9 @@
       <c r="HB96" t="n">
         <v>9</v>
       </c>
+      <c r="HC96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -61850,6 +62138,9 @@
       <c r="HB97" t="n">
         <v>26</v>
       </c>
+      <c r="HC97" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -62484,6 +62775,9 @@
       <c r="HB98" t="n">
         <v>30</v>
       </c>
+      <c r="HC98" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -63118,6 +63412,9 @@
       <c r="HB99" t="n">
         <v>25</v>
       </c>
+      <c r="HC99" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -63752,6 +64049,9 @@
       <c r="HB100" t="n">
         <v>1</v>
       </c>
+      <c r="HC100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -64386,6 +64686,9 @@
       <c r="HB101" t="n">
         <v>7</v>
       </c>
+      <c r="HC101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -65020,8 +65323,11 @@
       <c r="HB102" t="n">
         <v>70</v>
       </c>
+      <c r="HC102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/North Melbourne_stats.xlsx
+++ b/North Melbourne_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC102"/>
+  <dimension ref="A1:HD102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -989,6 +989,9 @@
       <c r="HC1" t="n">
         <v>10152</v>
       </c>
+      <c r="HD1" t="n">
+        <v>10186</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1626,6 +1629,9 @@
       <c r="HC2" t="n">
         <v>2020</v>
       </c>
+      <c r="HD2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2263,6 +2269,9 @@
       <c r="HC3" t="n">
         <v>4</v>
       </c>
+      <c r="HD3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2900,6 +2909,9 @@
       <c r="HC4" t="n">
         <v>1</v>
       </c>
+      <c r="HD4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3537,6 +3549,9 @@
       <c r="HC5" t="n">
         <v>0</v>
       </c>
+      <c r="HD5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4174,6 +4189,9 @@
       <c r="HC6" t="n">
         <v>54</v>
       </c>
+      <c r="HD6" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4811,6 +4829,9 @@
       <c r="HC7" t="n">
         <v>58</v>
       </c>
+      <c r="HD7" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5448,6 +5469,9 @@
       <c r="HC8" t="n">
         <v>-4</v>
       </c>
+      <c r="HD8" t="n">
+        <v>-49</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6085,6 +6109,9 @@
       <c r="HC9" t="n">
         <v>0</v>
       </c>
+      <c r="HD9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6722,6 +6749,9 @@
       <c r="HC10" t="n">
         <v>10</v>
       </c>
+      <c r="HD10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7359,6 +7389,9 @@
       <c r="HC11" t="n">
         <v>181</v>
       </c>
+      <c r="HD11" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7996,6 +8029,9 @@
       <c r="HC12" t="n">
         <v>148</v>
       </c>
+      <c r="HD12" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8633,6 +8669,9 @@
       <c r="HC13" t="n">
         <v>329</v>
       </c>
+      <c r="HD13" t="n">
+        <v>268</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9270,6 +9309,9 @@
       <c r="HC14" t="n">
         <v>1.22</v>
       </c>
+      <c r="HD14" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9907,6 +9949,9 @@
       <c r="HC15" t="n">
         <v>65</v>
       </c>
+      <c r="HD15" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10544,6 +10589,9 @@
       <c r="HC16" t="n">
         <v>47</v>
       </c>
+      <c r="HD16" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11181,6 +11229,9 @@
       <c r="HC17" t="n">
         <v>33</v>
       </c>
+      <c r="HD17" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11818,6 +11869,9 @@
       <c r="HC18" t="n">
         <v>21</v>
       </c>
+      <c r="HD18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12455,6 +12509,9 @@
       <c r="HC19" t="n">
         <v>12</v>
       </c>
+      <c r="HD19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13092,6 +13149,9 @@
       <c r="HC20" t="n">
         <v>8</v>
       </c>
+      <c r="HD20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13729,6 +13789,9 @@
       <c r="HC21" t="n">
         <v>4</v>
       </c>
+      <c r="HD21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14366,6 +14429,9 @@
       <c r="HC22" t="n">
         <v>5</v>
       </c>
+      <c r="HD22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15003,6 +15069,9 @@
       <c r="HC23" t="n">
         <v>1</v>
       </c>
+      <c r="HD23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15640,6 +15709,9 @@
       <c r="HC24" t="n">
         <v>14</v>
       </c>
+      <c r="HD24" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16277,6 +16349,9 @@
       <c r="HC25" t="n">
         <v>57.1</v>
       </c>
+      <c r="HD25" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16914,6 +16989,9 @@
       <c r="HC26" t="n">
         <v>41.12</v>
       </c>
+      <c r="HD26" t="n">
+        <v>53.6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17551,6 +17629,9 @@
       <c r="HC27" t="n">
         <v>23.5</v>
       </c>
+      <c r="HD27" t="n">
+        <v>20.62</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18188,6 +18269,9 @@
       <c r="HC28" t="n">
         <v>42</v>
       </c>
+      <c r="HD28" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18825,6 +18909,9 @@
       <c r="HC29" t="n">
         <v>43</v>
       </c>
+      <c r="HD29" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19462,6 +19549,9 @@
       <c r="HC30" t="n">
         <v>37</v>
       </c>
+      <c r="HD30" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20099,6 +20189,9 @@
       <c r="HC31" t="n">
         <v>32</v>
       </c>
+      <c r="HD31" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20736,6 +20829,9 @@
       <c r="HC32" t="n">
         <v>2.29</v>
       </c>
+      <c r="HD32" t="n">
+        <v>3.08</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21373,6 +21469,9 @@
       <c r="HC33" t="n">
         <v>4</v>
       </c>
+      <c r="HD33" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22010,6 +22109,9 @@
       <c r="HC34" t="n">
         <v>40.6</v>
       </c>
+      <c r="HD34" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22647,6 +22749,9 @@
       <c r="HC35" t="n">
         <v>25</v>
       </c>
+      <c r="HD35" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23284,6 +23389,9 @@
       <c r="HC36" t="n">
         <v>188.2</v>
       </c>
+      <c r="HD36" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23921,6 +24029,9 @@
       <c r="HC37" t="n">
         <v>86.8</v>
       </c>
+      <c r="HD37" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24558,6 +24669,9 @@
       <c r="HC38" t="n">
         <v>25.8</v>
       </c>
+      <c r="HD38" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25195,6 +25309,9 @@
       <c r="HC39" t="n">
         <v>98.90000000000001</v>
       </c>
+      <c r="HD39" t="n">
+        <v>106.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25832,6 +25949,9 @@
       <c r="HC40" t="n">
         <v>7</v>
       </c>
+      <c r="HD40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26469,6 +26589,9 @@
       <c r="HC41" t="n">
         <v>4</v>
       </c>
+      <c r="HD41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27106,6 +27229,9 @@
       <c r="HC42" t="n">
         <v>5</v>
       </c>
+      <c r="HD42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27743,6 +27869,9 @@
       <c r="HC43" t="n">
         <v>6</v>
       </c>
+      <c r="HD43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28380,6 +28509,9 @@
       <c r="HC44" t="n">
         <v>141</v>
       </c>
+      <c r="HD44" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29017,6 +29149,9 @@
       <c r="HC45" t="n">
         <v>186</v>
       </c>
+      <c r="HD45" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29654,6 +29789,9 @@
       <c r="HC46" t="n">
         <v>225</v>
       </c>
+      <c r="HD46" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30291,6 +30429,9 @@
       <c r="HC47" t="n">
         <v>68.40000000000001</v>
       </c>
+      <c r="HD47" t="n">
+        <v>71.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30928,6 +31069,9 @@
       <c r="HC48" t="n">
         <v>43</v>
       </c>
+      <c r="HD48" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31565,6 +31709,9 @@
       <c r="HC49" t="n">
         <v>9</v>
       </c>
+      <c r="HD49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32202,6 +32349,9 @@
       <c r="HC50" t="n">
         <v>6</v>
       </c>
+      <c r="HD50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32839,6 +32989,9 @@
       <c r="HC51" t="n">
         <v>42</v>
       </c>
+      <c r="HD51" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33476,6 +33629,9 @@
       <c r="HC52" t="n">
         <v>37</v>
       </c>
+      <c r="HD52" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34113,6 +34269,9 @@
       <c r="HC53" t="n">
         <v>34</v>
       </c>
+      <c r="HD53" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34750,6 +34909,9 @@
       <c r="HC54" t="n">
         <v>2</v>
       </c>
+      <c r="HD54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35387,6 +35549,9 @@
       <c r="HC55" t="n">
         <v>4</v>
       </c>
+      <c r="HD55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36024,6 +36189,9 @@
       <c r="HC56" t="n">
         <v>50</v>
       </c>
+      <c r="HD56" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36661,6 +36829,9 @@
       <c r="HC57" t="n">
         <v>152</v>
       </c>
+      <c r="HD57" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37298,6 +37469,9 @@
       <c r="HC58" t="n">
         <v>112</v>
       </c>
+      <c r="HD58" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37935,6 +38109,9 @@
       <c r="HC59" t="n">
         <v>264</v>
       </c>
+      <c r="HD59" t="n">
+        <v>332</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38572,6 +38749,9 @@
       <c r="HC60" t="n">
         <v>1.36</v>
       </c>
+      <c r="HD60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39209,6 +39389,9 @@
       <c r="HC61" t="n">
         <v>43</v>
       </c>
+      <c r="HD61" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -39846,6 +40029,9 @@
       <c r="HC62" t="n">
         <v>69</v>
       </c>
+      <c r="HD62" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40483,6 +40669,9 @@
       <c r="HC63" t="n">
         <v>29</v>
       </c>
+      <c r="HD63" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -41120,6 +41309,9 @@
       <c r="HC64" t="n">
         <v>12</v>
       </c>
+      <c r="HD64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41757,6 +41949,9 @@
       <c r="HC65" t="n">
         <v>21</v>
       </c>
+      <c r="HD65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -42394,6 +42589,9 @@
       <c r="HC66" t="n">
         <v>8</v>
       </c>
+      <c r="HD66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -43031,6 +43229,9 @@
       <c r="HC67" t="n">
         <v>4</v>
       </c>
+      <c r="HD67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43668,6 +43869,9 @@
       <c r="HC68" t="n">
         <v>9</v>
       </c>
+      <c r="HD68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -44305,6 +44509,9 @@
       <c r="HC69" t="n">
         <v>1</v>
       </c>
+      <c r="HD69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -44942,6 +45149,9 @@
       <c r="HC70" t="n">
         <v>18</v>
       </c>
+      <c r="HD70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -45579,6 +45789,9 @@
       <c r="HC71" t="n">
         <v>44.4</v>
       </c>
+      <c r="HD71" t="n">
+        <v>59.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -46216,6 +46429,9 @@
       <c r="HC72" t="n">
         <v>33</v>
       </c>
+      <c r="HD72" t="n">
+        <v>25.54</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -46853,6 +47069,9 @@
       <c r="HC73" t="n">
         <v>14.67</v>
       </c>
+      <c r="HD73" t="n">
+        <v>15.09</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47490,6 +47709,9 @@
       <c r="HC74" t="n">
         <v>27</v>
       </c>
+      <c r="HD74" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -48127,6 +48349,9 @@
       <c r="HC75" t="n">
         <v>44</v>
       </c>
+      <c r="HD75" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48764,6 +48989,9 @@
       <c r="HC76" t="n">
         <v>23</v>
       </c>
+      <c r="HD76" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -49401,6 +49629,9 @@
       <c r="HC77" t="n">
         <v>45</v>
       </c>
+      <c r="HD77" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -50038,6 +50269,9 @@
       <c r="HC78" t="n">
         <v>2.5</v>
       </c>
+      <c r="HD78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -50675,6 +50909,9 @@
       <c r="HC79" t="n">
         <v>5.62</v>
       </c>
+      <c r="HD79" t="n">
+        <v>3.38</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -51312,6 +51549,9 @@
       <c r="HC80" t="n">
         <v>37.8</v>
       </c>
+      <c r="HD80" t="n">
+        <v>43.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -51949,6 +52189,9 @@
       <c r="HC81" t="n">
         <v>17.8</v>
       </c>
+      <c r="HD81" t="n">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -52586,6 +52829,9 @@
       <c r="HC82" t="n">
         <v>188.5</v>
       </c>
+      <c r="HD82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -53223,6 +53469,9 @@
       <c r="HC83" t="n">
         <v>87.59999999999999</v>
       </c>
+      <c r="HD83" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -53860,6 +54109,9 @@
       <c r="HC84" t="n">
         <v>27.74</v>
       </c>
+      <c r="HD84" t="n">
+        <v>24.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -54497,6 +54749,9 @@
       <c r="HC85" t="n">
         <v>137.1</v>
       </c>
+      <c r="HD85" t="n">
+        <v>78.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -55134,6 +55389,9 @@
       <c r="HC86" t="n">
         <v>4</v>
       </c>
+      <c r="HD86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -55771,6 +56029,9 @@
       <c r="HC87" t="n">
         <v>6</v>
       </c>
+      <c r="HD87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -56408,6 +56669,9 @@
       <c r="HC88" t="n">
         <v>1</v>
       </c>
+      <c r="HD88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -57045,6 +57309,9 @@
       <c r="HC89" t="n">
         <v>11</v>
       </c>
+      <c r="HD89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -57682,6 +57949,9 @@
       <c r="HC90" t="n">
         <v>112</v>
       </c>
+      <c r="HD90" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -58319,6 +58589,9 @@
       <c r="HC91" t="n">
         <v>142</v>
       </c>
+      <c r="HD91" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -58956,6 +59229,9 @@
       <c r="HC92" t="n">
         <v>168</v>
       </c>
+      <c r="HD92" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -59593,6 +59869,9 @@
       <c r="HC93" t="n">
         <v>63.6</v>
       </c>
+      <c r="HD93" t="n">
+        <v>76.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -60230,6 +60509,9 @@
       <c r="HC94" t="n">
         <v>44</v>
       </c>
+      <c r="HD94" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -60867,6 +61149,9 @@
       <c r="HC95" t="n">
         <v>8</v>
       </c>
+      <c r="HD95" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -61504,6 +61789,9 @@
       <c r="HC96" t="n">
         <v>8</v>
       </c>
+      <c r="HD96" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -62141,6 +62429,9 @@
       <c r="HC97" t="n">
         <v>27</v>
       </c>
+      <c r="HD97" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -62778,6 +63069,9 @@
       <c r="HC98" t="n">
         <v>23</v>
       </c>
+      <c r="HD98" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -63415,6 +63709,9 @@
       <c r="HC99" t="n">
         <v>64</v>
       </c>
+      <c r="HD99" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -64052,6 +64349,9 @@
       <c r="HC100" t="n">
         <v>4</v>
       </c>
+      <c r="HD100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -64689,6 +64989,9 @@
       <c r="HC101" t="n">
         <v>4</v>
       </c>
+      <c r="HD101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -65326,6 +65629,9 @@
       <c r="HC102" t="n">
         <v>50</v>
       </c>
+      <c r="HD102" t="n">
+        <v>76.90000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/North Melbourne_stats.xlsx
+++ b/North Melbourne_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD102"/>
+  <dimension ref="A1:HG102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -992,6 +992,15 @@
       <c r="HD1" t="n">
         <v>10186</v>
       </c>
+      <c r="HE1" t="n">
+        <v>10214</v>
+      </c>
+      <c r="HF1" t="n">
+        <v>10222</v>
+      </c>
+      <c r="HG1" t="n">
+        <v>10229</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1632,6 +1641,15 @@
       <c r="HD2" t="n">
         <v>2020</v>
       </c>
+      <c r="HE2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2272,6 +2290,15 @@
       <c r="HD3" t="n">
         <v>5</v>
       </c>
+      <c r="HE3" t="n">
+        <v>6</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>7</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2912,6 +2939,15 @@
       <c r="HD4" t="n">
         <v>1</v>
       </c>
+      <c r="HE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3552,6 +3588,15 @@
       <c r="HD5" t="n">
         <v>0</v>
       </c>
+      <c r="HE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4192,6 +4237,15 @@
       <c r="HD6" t="n">
         <v>38</v>
       </c>
+      <c r="HE6" t="n">
+        <v>53</v>
+      </c>
+      <c r="HF6" t="n">
+        <v>23</v>
+      </c>
+      <c r="HG6" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4832,6 +4886,15 @@
       <c r="HD7" t="n">
         <v>87</v>
       </c>
+      <c r="HE7" t="n">
+        <v>67</v>
+      </c>
+      <c r="HF7" t="n">
+        <v>77</v>
+      </c>
+      <c r="HG7" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5472,6 +5535,15 @@
       <c r="HD8" t="n">
         <v>-49</v>
       </c>
+      <c r="HE8" t="n">
+        <v>-14</v>
+      </c>
+      <c r="HF8" t="n">
+        <v>-54</v>
+      </c>
+      <c r="HG8" t="n">
+        <v>-7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6112,6 +6184,15 @@
       <c r="HD9" t="n">
         <v>0</v>
       </c>
+      <c r="HE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6752,6 +6833,15 @@
       <c r="HD10" t="n">
         <v>18</v>
       </c>
+      <c r="HE10" t="n">
+        <v>5</v>
+      </c>
+      <c r="HF10" t="n">
+        <v>14</v>
+      </c>
+      <c r="HG10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7392,6 +7482,15 @@
       <c r="HD11" t="n">
         <v>155</v>
       </c>
+      <c r="HE11" t="n">
+        <v>184</v>
+      </c>
+      <c r="HF11" t="n">
+        <v>163</v>
+      </c>
+      <c r="HG11" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8032,6 +8131,15 @@
       <c r="HD12" t="n">
         <v>113</v>
       </c>
+      <c r="HE12" t="n">
+        <v>95</v>
+      </c>
+      <c r="HF12" t="n">
+        <v>145</v>
+      </c>
+      <c r="HG12" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8672,6 +8780,15 @@
       <c r="HD13" t="n">
         <v>268</v>
       </c>
+      <c r="HE13" t="n">
+        <v>279</v>
+      </c>
+      <c r="HF13" t="n">
+        <v>308</v>
+      </c>
+      <c r="HG13" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9312,6 +9429,15 @@
       <c r="HD14" t="n">
         <v>1.37</v>
       </c>
+      <c r="HE14" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="HF14" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="HG14" t="n">
+        <v>1.68</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9952,6 +10078,15 @@
       <c r="HD15" t="n">
         <v>64</v>
       </c>
+      <c r="HE15" t="n">
+        <v>56</v>
+      </c>
+      <c r="HF15" t="n">
+        <v>62</v>
+      </c>
+      <c r="HG15" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10592,6 +10727,15 @@
       <c r="HD16" t="n">
         <v>51</v>
       </c>
+      <c r="HE16" t="n">
+        <v>53</v>
+      </c>
+      <c r="HF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="HG16" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11232,6 +11376,15 @@
       <c r="HD17" t="n">
         <v>33</v>
       </c>
+      <c r="HE17" t="n">
+        <v>32</v>
+      </c>
+      <c r="HF17" t="n">
+        <v>28</v>
+      </c>
+      <c r="HG17" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11872,6 +12025,15 @@
       <c r="HD18" t="n">
         <v>18</v>
       </c>
+      <c r="HE18" t="n">
+        <v>20</v>
+      </c>
+      <c r="HF18" t="n">
+        <v>18</v>
+      </c>
+      <c r="HG18" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12512,6 +12674,15 @@
       <c r="HD19" t="n">
         <v>18</v>
       </c>
+      <c r="HE19" t="n">
+        <v>18</v>
+      </c>
+      <c r="HF19" t="n">
+        <v>11</v>
+      </c>
+      <c r="HG19" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13152,6 +13323,15 @@
       <c r="HD20" t="n">
         <v>5</v>
       </c>
+      <c r="HE20" t="n">
+        <v>7</v>
+      </c>
+      <c r="HF20" t="n">
+        <v>2</v>
+      </c>
+      <c r="HG20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13792,6 +13972,15 @@
       <c r="HD21" t="n">
         <v>2</v>
       </c>
+      <c r="HE21" t="n">
+        <v>2</v>
+      </c>
+      <c r="HF21" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14432,6 +14621,15 @@
       <c r="HD22" t="n">
         <v>5</v>
       </c>
+      <c r="HE22" t="n">
+        <v>9</v>
+      </c>
+      <c r="HF22" t="n">
+        <v>7</v>
+      </c>
+      <c r="HG22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15072,6 +15270,15 @@
       <c r="HD23" t="n">
         <v>3</v>
       </c>
+      <c r="HE23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HF23" t="n">
+        <v>4</v>
+      </c>
+      <c r="HG23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15712,6 +15919,15 @@
       <c r="HD24" t="n">
         <v>13</v>
       </c>
+      <c r="HE24" t="n">
+        <v>18</v>
+      </c>
+      <c r="HF24" t="n">
+        <v>13</v>
+      </c>
+      <c r="HG24" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16352,6 +16568,15 @@
       <c r="HD25" t="n">
         <v>38.5</v>
       </c>
+      <c r="HE25" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="HF25" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="HG25" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16992,6 +17217,15 @@
       <c r="HD26" t="n">
         <v>53.6</v>
       </c>
+      <c r="HE26" t="n">
+        <v>39.86</v>
+      </c>
+      <c r="HF26" t="n">
+        <v>154</v>
+      </c>
+      <c r="HG26" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17632,6 +17866,15 @@
       <c r="HD27" t="n">
         <v>20.62</v>
       </c>
+      <c r="HE27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="HF27" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="HG27" t="n">
+        <v>23.25</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18272,6 +18515,15 @@
       <c r="HD28" t="n">
         <v>26</v>
       </c>
+      <c r="HE28" t="n">
+        <v>32</v>
+      </c>
+      <c r="HF28" t="n">
+        <v>32</v>
+      </c>
+      <c r="HG28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18912,6 +19164,15 @@
       <c r="HD29" t="n">
         <v>42</v>
       </c>
+      <c r="HE29" t="n">
+        <v>53</v>
+      </c>
+      <c r="HF29" t="n">
+        <v>42</v>
+      </c>
+      <c r="HG29" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19552,6 +19813,15 @@
       <c r="HD30" t="n">
         <v>29</v>
       </c>
+      <c r="HE30" t="n">
+        <v>33</v>
+      </c>
+      <c r="HF30" t="n">
+        <v>38</v>
+      </c>
+      <c r="HG30" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20192,6 +20462,15 @@
       <c r="HD31" t="n">
         <v>40</v>
       </c>
+      <c r="HE31" t="n">
+        <v>47</v>
+      </c>
+      <c r="HF31" t="n">
+        <v>28</v>
+      </c>
+      <c r="HG31" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20832,6 +21111,15 @@
       <c r="HD32" t="n">
         <v>3.08</v>
       </c>
+      <c r="HE32" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="HF32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="HG32" t="n">
+        <v>3.42</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21472,6 +21760,15 @@
       <c r="HD33" t="n">
         <v>8</v>
       </c>
+      <c r="HE33" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="HF33" t="n">
+        <v>14</v>
+      </c>
+      <c r="HG33" t="n">
+        <v>4.56</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22112,6 +22409,15 @@
       <c r="HD34" t="n">
         <v>25</v>
       </c>
+      <c r="HE34" t="n">
+        <v>34</v>
+      </c>
+      <c r="HF34" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="HG34" t="n">
+        <v>29.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22752,6 +23058,15 @@
       <c r="HD35" t="n">
         <v>12.5</v>
       </c>
+      <c r="HE35" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="HF35" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="HG35" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23392,6 +23707,15 @@
       <c r="HD36" t="n">
         <v>188.3</v>
       </c>
+      <c r="HE36" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="HF36" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="HG36" t="n">
+        <v>189.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24032,6 +24356,15 @@
       <c r="HD37" t="n">
         <v>87</v>
       </c>
+      <c r="HE37" t="n">
+        <v>87</v>
+      </c>
+      <c r="HF37" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="HG37" t="n">
+        <v>87.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24672,6 +25005,15 @@
       <c r="HD38" t="n">
         <v>26</v>
       </c>
+      <c r="HE38" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HF38" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="HG38" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25312,6 +25654,15 @@
       <c r="HD39" t="n">
         <v>106.1</v>
       </c>
+      <c r="HE39" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="HF39" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="HG39" t="n">
+        <v>94.59999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25952,6 +26303,15 @@
       <c r="HD40" t="n">
         <v>6</v>
       </c>
+      <c r="HE40" t="n">
+        <v>8</v>
+      </c>
+      <c r="HF40" t="n">
+        <v>6</v>
+      </c>
+      <c r="HG40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26592,6 +26952,15 @@
       <c r="HD41" t="n">
         <v>4</v>
       </c>
+      <c r="HE41" t="n">
+        <v>3</v>
+      </c>
+      <c r="HF41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HG41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27232,6 +27601,15 @@
       <c r="HD42" t="n">
         <v>5</v>
       </c>
+      <c r="HE42" t="n">
+        <v>5</v>
+      </c>
+      <c r="HF42" t="n">
+        <v>5</v>
+      </c>
+      <c r="HG42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27872,6 +28250,15 @@
       <c r="HD43" t="n">
         <v>7</v>
       </c>
+      <c r="HE43" t="n">
+        <v>6</v>
+      </c>
+      <c r="HF43" t="n">
+        <v>7</v>
+      </c>
+      <c r="HG43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28512,6 +28899,15 @@
       <c r="HD44" t="n">
         <v>119</v>
       </c>
+      <c r="HE44" t="n">
+        <v>126</v>
+      </c>
+      <c r="HF44" t="n">
+        <v>111</v>
+      </c>
+      <c r="HG44" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29152,6 +29548,15 @@
       <c r="HD45" t="n">
         <v>146</v>
       </c>
+      <c r="HE45" t="n">
+        <v>137</v>
+      </c>
+      <c r="HF45" t="n">
+        <v>189</v>
+      </c>
+      <c r="HG45" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29792,6 +30197,15 @@
       <c r="HD46" t="n">
         <v>191</v>
       </c>
+      <c r="HE46" t="n">
+        <v>188</v>
+      </c>
+      <c r="HF46" t="n">
+        <v>223</v>
+      </c>
+      <c r="HG46" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30432,6 +30846,15 @@
       <c r="HD47" t="n">
         <v>71.3</v>
       </c>
+      <c r="HE47" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="HF47" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="HG47" t="n">
+        <v>71.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31072,6 +31495,15 @@
       <c r="HD48" t="n">
         <v>42</v>
       </c>
+      <c r="HE48" t="n">
+        <v>53</v>
+      </c>
+      <c r="HF48" t="n">
+        <v>42</v>
+      </c>
+      <c r="HG48" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31712,6 +32144,15 @@
       <c r="HD49" t="n">
         <v>15</v>
       </c>
+      <c r="HE49" t="n">
+        <v>5</v>
+      </c>
+      <c r="HF49" t="n">
+        <v>7</v>
+      </c>
+      <c r="HG49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32352,6 +32793,15 @@
       <c r="HD50" t="n">
         <v>6</v>
       </c>
+      <c r="HE50" t="n">
+        <v>3</v>
+      </c>
+      <c r="HF50" t="n">
+        <v>9</v>
+      </c>
+      <c r="HG50" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32992,6 +33442,15 @@
       <c r="HD51" t="n">
         <v>26</v>
       </c>
+      <c r="HE51" t="n">
+        <v>32</v>
+      </c>
+      <c r="HF51" t="n">
+        <v>32</v>
+      </c>
+      <c r="HG51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33632,6 +34091,15 @@
       <c r="HD52" t="n">
         <v>29</v>
       </c>
+      <c r="HE52" t="n">
+        <v>33</v>
+      </c>
+      <c r="HF52" t="n">
+        <v>38</v>
+      </c>
+      <c r="HG52" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34272,6 +34740,15 @@
       <c r="HD53" t="n">
         <v>39</v>
       </c>
+      <c r="HE53" t="n">
+        <v>47</v>
+      </c>
+      <c r="HF53" t="n">
+        <v>30</v>
+      </c>
+      <c r="HG53" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34912,6 +35389,15 @@
       <c r="HD54" t="n">
         <v>1</v>
       </c>
+      <c r="HE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35552,6 +36038,15 @@
       <c r="HD55" t="n">
         <v>2</v>
       </c>
+      <c r="HE55" t="n">
+        <v>2</v>
+      </c>
+      <c r="HF55" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36192,6 +36687,15 @@
       <c r="HD56" t="n">
         <v>40</v>
       </c>
+      <c r="HE56" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="HF56" t="n">
+        <v>50</v>
+      </c>
+      <c r="HG56" t="n">
+        <v>77.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36832,6 +37336,15 @@
       <c r="HD57" t="n">
         <v>166</v>
       </c>
+      <c r="HE57" t="n">
+        <v>182</v>
+      </c>
+      <c r="HF57" t="n">
+        <v>182</v>
+      </c>
+      <c r="HG57" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37472,6 +37985,15 @@
       <c r="HD58" t="n">
         <v>166</v>
       </c>
+      <c r="HE58" t="n">
+        <v>160</v>
+      </c>
+      <c r="HF58" t="n">
+        <v>119</v>
+      </c>
+      <c r="HG58" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38112,6 +38634,15 @@
       <c r="HD59" t="n">
         <v>332</v>
       </c>
+      <c r="HE59" t="n">
+        <v>342</v>
+      </c>
+      <c r="HF59" t="n">
+        <v>301</v>
+      </c>
+      <c r="HG59" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38752,6 +39283,15 @@
       <c r="HD60" t="n">
         <v>1</v>
       </c>
+      <c r="HE60" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="HF60" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="HG60" t="n">
+        <v>1.72</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39392,6 +39932,15 @@
       <c r="HD61" t="n">
         <v>70</v>
       </c>
+      <c r="HE61" t="n">
+        <v>53</v>
+      </c>
+      <c r="HF61" t="n">
+        <v>89</v>
+      </c>
+      <c r="HG61" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40032,6 +40581,15 @@
       <c r="HD62" t="n">
         <v>45</v>
       </c>
+      <c r="HE62" t="n">
+        <v>66</v>
+      </c>
+      <c r="HF62" t="n">
+        <v>49</v>
+      </c>
+      <c r="HG62" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40672,6 +41230,15 @@
       <c r="HD63" t="n">
         <v>15</v>
       </c>
+      <c r="HE63" t="n">
+        <v>32</v>
+      </c>
+      <c r="HF63" t="n">
+        <v>24</v>
+      </c>
+      <c r="HG63" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -41312,6 +41879,15 @@
       <c r="HD64" t="n">
         <v>18</v>
       </c>
+      <c r="HE64" t="n">
+        <v>18</v>
+      </c>
+      <c r="HF64" t="n">
+        <v>11</v>
+      </c>
+      <c r="HG64" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41952,6 +42528,15 @@
       <c r="HD65" t="n">
         <v>18</v>
       </c>
+      <c r="HE65" t="n">
+        <v>20</v>
+      </c>
+      <c r="HF65" t="n">
+        <v>18</v>
+      </c>
+      <c r="HG65" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -42592,6 +43177,15 @@
       <c r="HD66" t="n">
         <v>13</v>
       </c>
+      <c r="HE66" t="n">
+        <v>9</v>
+      </c>
+      <c r="HF66" t="n">
+        <v>11</v>
+      </c>
+      <c r="HG66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -43232,6 +43826,15 @@
       <c r="HD67" t="n">
         <v>10</v>
       </c>
+      <c r="HE67" t="n">
+        <v>6</v>
+      </c>
+      <c r="HF67" t="n">
+        <v>4</v>
+      </c>
+      <c r="HG67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43872,6 +44475,15 @@
       <c r="HD68" t="n">
         <v>6</v>
       </c>
+      <c r="HE68" t="n">
+        <v>12</v>
+      </c>
+      <c r="HF68" t="n">
+        <v>9</v>
+      </c>
+      <c r="HG68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -44512,6 +45124,15 @@
       <c r="HD69" t="n">
         <v>3</v>
       </c>
+      <c r="HE69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HG69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45152,6 +45773,15 @@
       <c r="HD70" t="n">
         <v>22</v>
       </c>
+      <c r="HE70" t="n">
+        <v>22</v>
+      </c>
+      <c r="HF70" t="n">
+        <v>22</v>
+      </c>
+      <c r="HG70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -45792,6 +46422,15 @@
       <c r="HD71" t="n">
         <v>59.1</v>
       </c>
+      <c r="HE71" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="HF71" t="n">
+        <v>50</v>
+      </c>
+      <c r="HG71" t="n">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -46432,6 +47071,15 @@
       <c r="HD72" t="n">
         <v>25.54</v>
       </c>
+      <c r="HE72" t="n">
+        <v>38</v>
+      </c>
+      <c r="HF72" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="HG72" t="n">
+        <v>31.11</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -47072,6 +47720,15 @@
       <c r="HD73" t="n">
         <v>15.09</v>
       </c>
+      <c r="HE73" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="HF73" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="HG73" t="n">
+        <v>14.74</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47712,6 +48369,15 @@
       <c r="HD74" t="n">
         <v>29</v>
       </c>
+      <c r="HE74" t="n">
+        <v>28</v>
+      </c>
+      <c r="HF74" t="n">
+        <v>20</v>
+      </c>
+      <c r="HG74" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -48352,6 +49018,15 @@
       <c r="HD75" t="n">
         <v>37</v>
       </c>
+      <c r="HE75" t="n">
+        <v>61</v>
+      </c>
+      <c r="HF75" t="n">
+        <v>38</v>
+      </c>
+      <c r="HG75" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48992,6 +49667,15 @@
       <c r="HD76" t="n">
         <v>34</v>
       </c>
+      <c r="HE76" t="n">
+        <v>38</v>
+      </c>
+      <c r="HF76" t="n">
+        <v>25</v>
+      </c>
+      <c r="HG76" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -49632,6 +50316,15 @@
       <c r="HD77" t="n">
         <v>44</v>
       </c>
+      <c r="HE77" t="n">
+        <v>43</v>
+      </c>
+      <c r="HF77" t="n">
+        <v>51</v>
+      </c>
+      <c r="HG77" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -50272,6 +50965,15 @@
       <c r="HD78" t="n">
         <v>2</v>
       </c>
+      <c r="HE78" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="HF78" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="HG78" t="n">
+        <v>2.84</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -50912,6 +51614,15 @@
       <c r="HD79" t="n">
         <v>3.38</v>
       </c>
+      <c r="HE79" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="HF79" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="HG79" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -51552,6 +52263,15 @@
       <c r="HD80" t="n">
         <v>43.2</v>
       </c>
+      <c r="HE80" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="HF80" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="HG80" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -52192,6 +52912,15 @@
       <c r="HD81" t="n">
         <v>29.5</v>
       </c>
+      <c r="HE81" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="HF81" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="HG81" t="n">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -52832,6 +53561,15 @@
       <c r="HD82" t="n">
         <v>187.3</v>
       </c>
+      <c r="HE82" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="HF82" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="HG82" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -53472,6 +54210,15 @@
       <c r="HD83" t="n">
         <v>85</v>
       </c>
+      <c r="HE83" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="HF83" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="HG83" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -54112,6 +54859,15 @@
       <c r="HD84" t="n">
         <v>24.66</v>
       </c>
+      <c r="HE84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HF84" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="HG84" t="n">
+        <v>26.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -54752,6 +55508,15 @@
       <c r="HD85" t="n">
         <v>78.8</v>
       </c>
+      <c r="HE85" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="HF85" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="HG85" t="n">
+        <v>108.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -55392,6 +56157,15 @@
       <c r="HD86" t="n">
         <v>8</v>
       </c>
+      <c r="HE86" t="n">
+        <v>6</v>
+      </c>
+      <c r="HF86" t="n">
+        <v>10</v>
+      </c>
+      <c r="HG86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -56032,6 +56806,15 @@
       <c r="HD87" t="n">
         <v>6</v>
       </c>
+      <c r="HE87" t="n">
+        <v>10</v>
+      </c>
+      <c r="HF87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HG87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -56672,6 +57455,15 @@
       <c r="HD88" t="n">
         <v>7</v>
       </c>
+      <c r="HE88" t="n">
+        <v>2</v>
+      </c>
+      <c r="HF88" t="n">
+        <v>2</v>
+      </c>
+      <c r="HG88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -57312,6 +58104,15 @@
       <c r="HD89" t="n">
         <v>1</v>
       </c>
+      <c r="HE89" t="n">
+        <v>4</v>
+      </c>
+      <c r="HF89" t="n">
+        <v>5</v>
+      </c>
+      <c r="HG89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -57952,6 +58753,15 @@
       <c r="HD90" t="n">
         <v>120</v>
       </c>
+      <c r="HE90" t="n">
+        <v>126</v>
+      </c>
+      <c r="HF90" t="n">
+        <v>90</v>
+      </c>
+      <c r="HG90" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -58592,6 +59402,15 @@
       <c r="HD91" t="n">
         <v>214</v>
       </c>
+      <c r="HE91" t="n">
+        <v>198</v>
+      </c>
+      <c r="HF91" t="n">
+        <v>209</v>
+      </c>
+      <c r="HG91" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -59232,6 +60051,15 @@
       <c r="HD92" t="n">
         <v>254</v>
       </c>
+      <c r="HE92" t="n">
+        <v>246</v>
+      </c>
+      <c r="HF92" t="n">
+        <v>238</v>
+      </c>
+      <c r="HG92" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -59872,6 +60700,15 @@
       <c r="HD93" t="n">
         <v>76.5</v>
       </c>
+      <c r="HE93" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="HF93" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="HG93" t="n">
+        <v>65.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -60512,6 +61349,15 @@
       <c r="HD94" t="n">
         <v>37</v>
       </c>
+      <c r="HE94" t="n">
+        <v>61</v>
+      </c>
+      <c r="HF94" t="n">
+        <v>38</v>
+      </c>
+      <c r="HG94" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -61152,6 +61998,15 @@
       <c r="HD95" t="n">
         <v>16</v>
       </c>
+      <c r="HE95" t="n">
+        <v>8</v>
+      </c>
+      <c r="HF95" t="n">
+        <v>5</v>
+      </c>
+      <c r="HG95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -61792,6 +62647,15 @@
       <c r="HD96" t="n">
         <v>15</v>
       </c>
+      <c r="HE96" t="n">
+        <v>7</v>
+      </c>
+      <c r="HF96" t="n">
+        <v>12</v>
+      </c>
+      <c r="HG96" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -62432,6 +63296,15 @@
       <c r="HD97" t="n">
         <v>29</v>
       </c>
+      <c r="HE97" t="n">
+        <v>28</v>
+      </c>
+      <c r="HF97" t="n">
+        <v>20</v>
+      </c>
+      <c r="HG97" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -63072,6 +63945,15 @@
       <c r="HD98" t="n">
         <v>34</v>
       </c>
+      <c r="HE98" t="n">
+        <v>38</v>
+      </c>
+      <c r="HF98" t="n">
+        <v>25</v>
+      </c>
+      <c r="HG98" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -63712,6 +64594,15 @@
       <c r="HD99" t="n">
         <v>53</v>
       </c>
+      <c r="HE99" t="n">
+        <v>47</v>
+      </c>
+      <c r="HF99" t="n">
+        <v>46</v>
+      </c>
+      <c r="HG99" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -64352,6 +65243,15 @@
       <c r="HD100" t="n">
         <v>3</v>
       </c>
+      <c r="HE100" t="n">
+        <v>8</v>
+      </c>
+      <c r="HF100" t="n">
+        <v>5</v>
+      </c>
+      <c r="HG100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -64992,6 +65892,15 @@
       <c r="HD101" t="n">
         <v>10</v>
       </c>
+      <c r="HE101" t="n">
+        <v>6</v>
+      </c>
+      <c r="HF101" t="n">
+        <v>4</v>
+      </c>
+      <c r="HG101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -65632,6 +66541,15 @@
       <c r="HD102" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="HE102" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HF102" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="HG102" t="n">
+        <v>55.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/North Melbourne_stats.xlsx
+++ b/North Melbourne_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HG102"/>
+  <dimension ref="A1:HH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,6 +1001,9 @@
       <c r="HG1" t="n">
         <v>10229</v>
       </c>
+      <c r="HH1" t="n">
+        <v>10240</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1650,6 +1653,9 @@
       <c r="HG2" t="n">
         <v>2020</v>
       </c>
+      <c r="HH2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2299,6 +2305,9 @@
       <c r="HG3" t="n">
         <v>8</v>
       </c>
+      <c r="HH3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2948,6 +2957,9 @@
       <c r="HG4" t="n">
         <v>0</v>
       </c>
+      <c r="HH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3597,6 +3609,9 @@
       <c r="HG5" t="n">
         <v>1</v>
       </c>
+      <c r="HH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4246,6 +4261,9 @@
       <c r="HG6" t="n">
         <v>57</v>
       </c>
+      <c r="HH6" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4895,6 +4913,9 @@
       <c r="HG7" t="n">
         <v>64</v>
       </c>
+      <c r="HH7" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5544,6 +5565,9 @@
       <c r="HG8" t="n">
         <v>-7</v>
       </c>
+      <c r="HH8" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6193,6 +6217,9 @@
       <c r="HG9" t="n">
         <v>0</v>
       </c>
+      <c r="HH9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6842,6 +6869,9 @@
       <c r="HG10" t="n">
         <v>3</v>
       </c>
+      <c r="HH10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7491,6 +7521,9 @@
       <c r="HG11" t="n">
         <v>175</v>
       </c>
+      <c r="HH11" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8140,6 +8173,9 @@
       <c r="HG12" t="n">
         <v>104</v>
       </c>
+      <c r="HH12" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8789,6 +8825,9 @@
       <c r="HG13" t="n">
         <v>279</v>
       </c>
+      <c r="HH13" t="n">
+        <v>358</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9438,6 +9477,9 @@
       <c r="HG14" t="n">
         <v>1.68</v>
       </c>
+      <c r="HH14" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10087,6 +10129,9 @@
       <c r="HG15" t="n">
         <v>65</v>
       </c>
+      <c r="HH15" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10736,6 +10781,9 @@
       <c r="HG16" t="n">
         <v>63</v>
       </c>
+      <c r="HH16" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11385,6 +11433,9 @@
       <c r="HG17" t="n">
         <v>44</v>
       </c>
+      <c r="HH17" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12034,6 +12085,9 @@
       <c r="HG18" t="n">
         <v>32</v>
       </c>
+      <c r="HH18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12683,6 +12737,9 @@
       <c r="HG19" t="n">
         <v>24</v>
       </c>
+      <c r="HH19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13332,6 +13389,9 @@
       <c r="HG20" t="n">
         <v>9</v>
       </c>
+      <c r="HH20" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13981,6 +14041,9 @@
       <c r="HG21" t="n">
         <v>7</v>
       </c>
+      <c r="HH21" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14630,6 +14693,9 @@
       <c r="HG22" t="n">
         <v>3</v>
       </c>
+      <c r="HH22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15279,6 +15345,9 @@
       <c r="HG23" t="n">
         <v>0</v>
       </c>
+      <c r="HH23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15928,6 +15997,9 @@
       <c r="HG24" t="n">
         <v>12</v>
       </c>
+      <c r="HH24" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16577,6 +16649,9 @@
       <c r="HG25" t="n">
         <v>75</v>
       </c>
+      <c r="HH25" t="n">
+        <v>79.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17226,6 +17301,9 @@
       <c r="HG26" t="n">
         <v>31</v>
       </c>
+      <c r="HH26" t="n">
+        <v>18.84</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17875,6 +17953,9 @@
       <c r="HG27" t="n">
         <v>23.25</v>
       </c>
+      <c r="HH27" t="n">
+        <v>14.92</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18524,6 +18605,9 @@
       <c r="HG28" t="n">
         <v>30</v>
       </c>
+      <c r="HH28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19173,6 +19257,9 @@
       <c r="HG29" t="n">
         <v>56</v>
       </c>
+      <c r="HH29" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19822,6 +19909,9 @@
       <c r="HG30" t="n">
         <v>44</v>
       </c>
+      <c r="HH30" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20471,6 +20561,9 @@
       <c r="HG31" t="n">
         <v>41</v>
       </c>
+      <c r="HH31" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21120,6 +21213,9 @@
       <c r="HG32" t="n">
         <v>3.42</v>
       </c>
+      <c r="HH32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21769,6 +21865,9 @@
       <c r="HG33" t="n">
         <v>4.56</v>
       </c>
+      <c r="HH33" t="n">
+        <v>2.53</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22418,6 +22517,9 @@
       <c r="HG34" t="n">
         <v>29.3</v>
       </c>
+      <c r="HH34" t="n">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23067,6 +23169,9 @@
       <c r="HG35" t="n">
         <v>22</v>
       </c>
+      <c r="HH35" t="n">
+        <v>39.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23716,6 +23821,9 @@
       <c r="HG36" t="n">
         <v>189.1</v>
       </c>
+      <c r="HH36" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24365,6 +24473,9 @@
       <c r="HG37" t="n">
         <v>87.3</v>
       </c>
+      <c r="HH37" t="n">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25014,6 +25125,9 @@
       <c r="HG38" t="n">
         <v>25.58</v>
       </c>
+      <c r="HH38" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25663,6 +25777,9 @@
       <c r="HG39" t="n">
         <v>94.59999999999999</v>
       </c>
+      <c r="HH39" t="n">
+        <v>86.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26312,6 +26429,9 @@
       <c r="HG40" t="n">
         <v>8</v>
       </c>
+      <c r="HH40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26961,6 +27081,9 @@
       <c r="HG41" t="n">
         <v>4</v>
       </c>
+      <c r="HH41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27610,6 +27733,9 @@
       <c r="HG42" t="n">
         <v>4</v>
       </c>
+      <c r="HH42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28259,6 +28385,9 @@
       <c r="HG43" t="n">
         <v>6</v>
       </c>
+      <c r="HH43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28908,6 +29037,9 @@
       <c r="HG44" t="n">
         <v>121</v>
       </c>
+      <c r="HH44" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29557,6 +29689,9 @@
       <c r="HG45" t="n">
         <v>153</v>
       </c>
+      <c r="HH45" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30206,6 +30341,9 @@
       <c r="HG46" t="n">
         <v>199</v>
       </c>
+      <c r="HH46" t="n">
+        <v>269</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30855,6 +30993,9 @@
       <c r="HG47" t="n">
         <v>71.3</v>
       </c>
+      <c r="HH47" t="n">
+        <v>75.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31504,6 +31645,9 @@
       <c r="HG48" t="n">
         <v>56</v>
       </c>
+      <c r="HH48" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32153,6 +32297,9 @@
       <c r="HG49" t="n">
         <v>6</v>
       </c>
+      <c r="HH49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32802,6 +32949,9 @@
       <c r="HG50" t="n">
         <v>4</v>
       </c>
+      <c r="HH50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33451,6 +33601,9 @@
       <c r="HG51" t="n">
         <v>30</v>
       </c>
+      <c r="HH51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34100,6 +34253,9 @@
       <c r="HG52" t="n">
         <v>44</v>
       </c>
+      <c r="HH52" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34749,6 +34905,9 @@
       <c r="HG53" t="n">
         <v>38</v>
       </c>
+      <c r="HH53" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35398,6 +35557,9 @@
       <c r="HG54" t="n">
         <v>1</v>
       </c>
+      <c r="HH54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36047,6 +36209,9 @@
       <c r="HG55" t="n">
         <v>7</v>
       </c>
+      <c r="HH55" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36696,6 +36861,9 @@
       <c r="HG56" t="n">
         <v>77.8</v>
       </c>
+      <c r="HH56" t="n">
+        <v>68.40000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37345,6 +37513,9 @@
       <c r="HG57" t="n">
         <v>177</v>
       </c>
+      <c r="HH57" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37994,6 +38165,9 @@
       <c r="HG58" t="n">
         <v>103</v>
       </c>
+      <c r="HH58" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38643,6 +38817,9 @@
       <c r="HG59" t="n">
         <v>280</v>
       </c>
+      <c r="HH59" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -39292,6 +39469,9 @@
       <c r="HG60" t="n">
         <v>1.72</v>
       </c>
+      <c r="HH60" t="n">
+        <v>1.13</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39941,6 +40121,9 @@
       <c r="HG61" t="n">
         <v>60</v>
       </c>
+      <c r="HH61" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40590,6 +40773,9 @@
       <c r="HG62" t="n">
         <v>66</v>
       </c>
+      <c r="HH62" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41239,6 +41425,9 @@
       <c r="HG63" t="n">
         <v>29</v>
       </c>
+      <c r="HH63" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -41888,6 +42077,9 @@
       <c r="HG64" t="n">
         <v>24</v>
       </c>
+      <c r="HH64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -42537,6 +42729,9 @@
       <c r="HG65" t="n">
         <v>32</v>
       </c>
+      <c r="HH65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43186,6 +43381,9 @@
       <c r="HG66" t="n">
         <v>9</v>
       </c>
+      <c r="HH66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -43835,6 +44033,9 @@
       <c r="HG67" t="n">
         <v>5</v>
       </c>
+      <c r="HH67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -44484,6 +44685,9 @@
       <c r="HG68" t="n">
         <v>9</v>
       </c>
+      <c r="HH68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45133,6 +45337,9 @@
       <c r="HG69" t="n">
         <v>1</v>
       </c>
+      <c r="HH69" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45782,6 +45989,9 @@
       <c r="HG70" t="n">
         <v>19</v>
       </c>
+      <c r="HH70" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -46431,6 +46641,9 @@
       <c r="HG71" t="n">
         <v>47.4</v>
       </c>
+      <c r="HH71" t="n">
+        <v>46.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47080,6 +47293,9 @@
       <c r="HG72" t="n">
         <v>31.11</v>
       </c>
+      <c r="HH72" t="n">
+        <v>36.86</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -47729,6 +47945,9 @@
       <c r="HG73" t="n">
         <v>14.74</v>
       </c>
+      <c r="HH73" t="n">
+        <v>17.2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -48378,6 +48597,9 @@
       <c r="HG74" t="n">
         <v>39</v>
       </c>
+      <c r="HH74" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49027,6 +49249,9 @@
       <c r="HG75" t="n">
         <v>63</v>
       </c>
+      <c r="HH75" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -49676,6 +49901,9 @@
       <c r="HG76" t="n">
         <v>31</v>
       </c>
+      <c r="HH76" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -50325,6 +50553,9 @@
       <c r="HG77" t="n">
         <v>54</v>
       </c>
+      <c r="HH77" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -50974,6 +51205,9 @@
       <c r="HG78" t="n">
         <v>2.84</v>
       </c>
+      <c r="HH78" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -51623,6 +51857,9 @@
       <c r="HG79" t="n">
         <v>6</v>
       </c>
+      <c r="HH79" t="n">
+        <v>5.14</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -52272,6 +52509,9 @@
       <c r="HG80" t="n">
         <v>33.3</v>
       </c>
+      <c r="HH80" t="n">
+        <v>27.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -52921,6 +53161,9 @@
       <c r="HG81" t="n">
         <v>16.7</v>
       </c>
+      <c r="HH81" t="n">
+        <v>19.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -53570,6 +53813,9 @@
       <c r="HG82" t="n">
         <v>188.4</v>
       </c>
+      <c r="HH82" t="n">
+        <v>187.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -54219,6 +54465,9 @@
       <c r="HG83" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="HH83" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -54868,6 +55117,9 @@
       <c r="HG84" t="n">
         <v>26.33</v>
       </c>
+      <c r="HH84" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -55517,6 +55769,9 @@
       <c r="HG85" t="n">
         <v>108.5</v>
       </c>
+      <c r="HH85" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -56166,6 +56421,9 @@
       <c r="HG86" t="n">
         <v>8</v>
       </c>
+      <c r="HH86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -56815,6 +57073,9 @@
       <c r="HG87" t="n">
         <v>3</v>
       </c>
+      <c r="HH87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -57464,6 +57725,9 @@
       <c r="HG88" t="n">
         <v>6</v>
       </c>
+      <c r="HH88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -58113,6 +58377,9 @@
       <c r="HG89" t="n">
         <v>5</v>
       </c>
+      <c r="HH89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -58762,6 +59029,9 @@
       <c r="HG90" t="n">
         <v>124</v>
       </c>
+      <c r="HH90" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -59411,6 +59681,9 @@
       <c r="HG91" t="n">
         <v>157</v>
       </c>
+      <c r="HH91" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -60060,6 +60333,9 @@
       <c r="HG92" t="n">
         <v>184</v>
       </c>
+      <c r="HH92" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -60709,6 +60985,9 @@
       <c r="HG93" t="n">
         <v>65.7</v>
       </c>
+      <c r="HH93" t="n">
+        <v>71.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -61358,6 +61637,9 @@
       <c r="HG94" t="n">
         <v>63</v>
       </c>
+      <c r="HH94" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -62007,6 +62289,9 @@
       <c r="HG95" t="n">
         <v>6</v>
       </c>
+      <c r="HH95" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -62656,6 +62941,9 @@
       <c r="HG96" t="n">
         <v>4</v>
       </c>
+      <c r="HH96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -63305,6 +63593,9 @@
       <c r="HG97" t="n">
         <v>39</v>
       </c>
+      <c r="HH97" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -63954,6 +64245,9 @@
       <c r="HG98" t="n">
         <v>31</v>
       </c>
+      <c r="HH98" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -64603,6 +64897,9 @@
       <c r="HG99" t="n">
         <v>51</v>
       </c>
+      <c r="HH99" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -65252,6 +65549,9 @@
       <c r="HG100" t="n">
         <v>1</v>
       </c>
+      <c r="HH100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -65901,6 +66201,9 @@
       <c r="HG101" t="n">
         <v>5</v>
       </c>
+      <c r="HH101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -66550,8 +66853,11 @@
       <c r="HG102" t="n">
         <v>55.6</v>
       </c>
+      <c r="HH102" t="n">
+        <v>42.9</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/North Melbourne_stats.xlsx
+++ b/North Melbourne_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HH102"/>
+  <dimension ref="A1:HK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,6 +1004,15 @@
       <c r="HH1" t="n">
         <v>10240</v>
       </c>
+      <c r="HI1" t="n">
+        <v>10247</v>
+      </c>
+      <c r="HJ1" t="n">
+        <v>10255</v>
+      </c>
+      <c r="HK1" t="n">
+        <v>10262</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1656,6 +1665,15 @@
       <c r="HH2" t="n">
         <v>2020</v>
       </c>
+      <c r="HI2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2308,6 +2326,15 @@
       <c r="HH3" t="n">
         <v>9</v>
       </c>
+      <c r="HI3" t="n">
+        <v>10</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>11</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2960,6 +2987,15 @@
       <c r="HH4" t="n">
         <v>0</v>
       </c>
+      <c r="HI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3612,6 +3648,15 @@
       <c r="HH5" t="n">
         <v>0</v>
       </c>
+      <c r="HI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4264,6 +4309,15 @@
       <c r="HH6" t="n">
         <v>119</v>
       </c>
+      <c r="HI6" t="n">
+        <v>57</v>
+      </c>
+      <c r="HJ6" t="n">
+        <v>35</v>
+      </c>
+      <c r="HK6" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4916,6 +4970,15 @@
       <c r="HH7" t="n">
         <v>50</v>
       </c>
+      <c r="HI7" t="n">
+        <v>90</v>
+      </c>
+      <c r="HJ7" t="n">
+        <v>92</v>
+      </c>
+      <c r="HK7" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5568,6 +5631,15 @@
       <c r="HH8" t="n">
         <v>69</v>
       </c>
+      <c r="HI8" t="n">
+        <v>-33</v>
+      </c>
+      <c r="HJ8" t="n">
+        <v>-57</v>
+      </c>
+      <c r="HK8" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6220,6 +6292,15 @@
       <c r="HH9" t="n">
         <v>1</v>
       </c>
+      <c r="HI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6872,6 +6953,15 @@
       <c r="HH10" t="n">
         <v>1</v>
       </c>
+      <c r="HI10" t="n">
+        <v>7</v>
+      </c>
+      <c r="HJ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="HK10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7524,6 +7614,15 @@
       <c r="HH11" t="n">
         <v>201</v>
       </c>
+      <c r="HI11" t="n">
+        <v>155</v>
+      </c>
+      <c r="HJ11" t="n">
+        <v>177</v>
+      </c>
+      <c r="HK11" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8176,6 +8275,15 @@
       <c r="HH12" t="n">
         <v>157</v>
       </c>
+      <c r="HI12" t="n">
+        <v>126</v>
+      </c>
+      <c r="HJ12" t="n">
+        <v>167</v>
+      </c>
+      <c r="HK12" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8828,6 +8936,15 @@
       <c r="HH13" t="n">
         <v>358</v>
       </c>
+      <c r="HI13" t="n">
+        <v>281</v>
+      </c>
+      <c r="HJ13" t="n">
+        <v>344</v>
+      </c>
+      <c r="HK13" t="n">
+        <v>308</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9480,6 +9597,15 @@
       <c r="HH14" t="n">
         <v>1.28</v>
       </c>
+      <c r="HI14" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="HJ14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="HK14" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10132,6 +10258,15 @@
       <c r="HH15" t="n">
         <v>100</v>
       </c>
+      <c r="HI15" t="n">
+        <v>46</v>
+      </c>
+      <c r="HJ15" t="n">
+        <v>69</v>
+      </c>
+      <c r="HK15" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10784,6 +10919,15 @@
       <c r="HH16" t="n">
         <v>66</v>
       </c>
+      <c r="HI16" t="n">
+        <v>51</v>
+      </c>
+      <c r="HJ16" t="n">
+        <v>52</v>
+      </c>
+      <c r="HK16" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11436,6 +11580,15 @@
       <c r="HH17" t="n">
         <v>29</v>
       </c>
+      <c r="HI17" t="n">
+        <v>24</v>
+      </c>
+      <c r="HJ17" t="n">
+        <v>29</v>
+      </c>
+      <c r="HK17" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12088,6 +12241,15 @@
       <c r="HH18" t="n">
         <v>17</v>
       </c>
+      <c r="HI18" t="n">
+        <v>18</v>
+      </c>
+      <c r="HJ18" t="n">
+        <v>19</v>
+      </c>
+      <c r="HK18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12740,6 +12902,15 @@
       <c r="HH19" t="n">
         <v>22</v>
       </c>
+      <c r="HI19" t="n">
+        <v>16</v>
+      </c>
+      <c r="HJ19" t="n">
+        <v>13</v>
+      </c>
+      <c r="HK19" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13392,6 +13563,15 @@
       <c r="HH20" t="n">
         <v>19</v>
       </c>
+      <c r="HI20" t="n">
+        <v>9</v>
+      </c>
+      <c r="HJ20" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14044,6 +14224,15 @@
       <c r="HH21" t="n">
         <v>13</v>
       </c>
+      <c r="HI21" t="n">
+        <v>8</v>
+      </c>
+      <c r="HJ21" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14696,6 +14885,15 @@
       <c r="HH22" t="n">
         <v>3</v>
       </c>
+      <c r="HI22" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ22" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15348,6 +15546,15 @@
       <c r="HH23" t="n">
         <v>2</v>
       </c>
+      <c r="HI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HJ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HK23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16000,6 +16207,15 @@
       <c r="HH24" t="n">
         <v>24</v>
       </c>
+      <c r="HI24" t="n">
+        <v>12</v>
+      </c>
+      <c r="HJ24" t="n">
+        <v>10</v>
+      </c>
+      <c r="HK24" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16652,6 +16868,15 @@
       <c r="HH25" t="n">
         <v>79.2</v>
       </c>
+      <c r="HI25" t="n">
+        <v>75</v>
+      </c>
+      <c r="HJ25" t="n">
+        <v>50</v>
+      </c>
+      <c r="HK25" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17304,6 +17529,15 @@
       <c r="HH26" t="n">
         <v>18.84</v>
       </c>
+      <c r="HI26" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="HJ26" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="HK26" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17956,6 +18190,15 @@
       <c r="HH27" t="n">
         <v>14.92</v>
       </c>
+      <c r="HI27" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="HJ27" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="HK27" t="n">
+        <v>25.67</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18608,6 +18851,15 @@
       <c r="HH28" t="n">
         <v>35</v>
       </c>
+      <c r="HI28" t="n">
+        <v>30</v>
+      </c>
+      <c r="HJ28" t="n">
+        <v>22</v>
+      </c>
+      <c r="HK28" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19260,6 +19512,15 @@
       <c r="HH29" t="n">
         <v>53</v>
       </c>
+      <c r="HI29" t="n">
+        <v>43</v>
+      </c>
+      <c r="HJ29" t="n">
+        <v>51</v>
+      </c>
+      <c r="HK29" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19912,6 +20173,15 @@
       <c r="HH30" t="n">
         <v>28</v>
       </c>
+      <c r="HI30" t="n">
+        <v>33</v>
+      </c>
+      <c r="HJ30" t="n">
+        <v>44</v>
+      </c>
+      <c r="HK30" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20564,6 +20834,15 @@
       <c r="HH31" t="n">
         <v>48</v>
       </c>
+      <c r="HI31" t="n">
+        <v>45</v>
+      </c>
+      <c r="HJ31" t="n">
+        <v>30</v>
+      </c>
+      <c r="HK31" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21216,6 +21495,15 @@
       <c r="HH32" t="n">
         <v>2</v>
       </c>
+      <c r="HI32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="HJ32" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK32" t="n">
+        <v>2.92</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21868,6 +22156,15 @@
       <c r="HH33" t="n">
         <v>2.53</v>
       </c>
+      <c r="HI33" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ33" t="n">
+        <v>6</v>
+      </c>
+      <c r="HK33" t="n">
+        <v>4.38</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22520,6 +22817,15 @@
       <c r="HH34" t="n">
         <v>45.8</v>
       </c>
+      <c r="HI34" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="HJ34" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="HK34" t="n">
+        <v>34.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23172,6 +23478,15 @@
       <c r="HH35" t="n">
         <v>39.6</v>
       </c>
+      <c r="HI35" t="n">
+        <v>20</v>
+      </c>
+      <c r="HJ35" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="HK35" t="n">
+        <v>22.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23824,6 +24139,15 @@
       <c r="HH36" t="n">
         <v>188.9</v>
       </c>
+      <c r="HI36" t="n">
+        <v>189</v>
+      </c>
+      <c r="HJ36" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="HK36" t="n">
+        <v>189.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24476,6 +24800,15 @@
       <c r="HH37" t="n">
         <v>87.2</v>
       </c>
+      <c r="HI37" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="HJ37" t="n">
+        <v>88</v>
+      </c>
+      <c r="HK37" t="n">
+        <v>86.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25128,6 +25461,15 @@
       <c r="HH38" t="n">
         <v>25.33</v>
       </c>
+      <c r="HI38" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="HJ38" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HK38" t="n">
+        <v>24.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25780,6 +26122,15 @@
       <c r="HH39" t="n">
         <v>86.2</v>
       </c>
+      <c r="HI39" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="HJ39" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="HK39" t="n">
+        <v>68.09999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26432,6 +26783,15 @@
       <c r="HH40" t="n">
         <v>9</v>
       </c>
+      <c r="HI40" t="n">
+        <v>7</v>
+      </c>
+      <c r="HJ40" t="n">
+        <v>8</v>
+      </c>
+      <c r="HK40" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27084,6 +27444,15 @@
       <c r="HH41" t="n">
         <v>5</v>
       </c>
+      <c r="HI41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27736,6 +28105,15 @@
       <c r="HH42" t="n">
         <v>2</v>
       </c>
+      <c r="HI42" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28388,6 +28766,15 @@
       <c r="HH43" t="n">
         <v>6</v>
       </c>
+      <c r="HI43" t="n">
+        <v>6</v>
+      </c>
+      <c r="HJ43" t="n">
+        <v>6</v>
+      </c>
+      <c r="HK43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29040,6 +29427,15 @@
       <c r="HH44" t="n">
         <v>125</v>
       </c>
+      <c r="HI44" t="n">
+        <v>100</v>
+      </c>
+      <c r="HJ44" t="n">
+        <v>126</v>
+      </c>
+      <c r="HK44" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29692,6 +30088,15 @@
       <c r="HH45" t="n">
         <v>232</v>
       </c>
+      <c r="HI45" t="n">
+        <v>168</v>
+      </c>
+      <c r="HJ45" t="n">
+        <v>221</v>
+      </c>
+      <c r="HK45" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30344,6 +30749,15 @@
       <c r="HH46" t="n">
         <v>269</v>
       </c>
+      <c r="HI46" t="n">
+        <v>209</v>
+      </c>
+      <c r="HJ46" t="n">
+        <v>251</v>
+      </c>
+      <c r="HK46" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30996,6 +31410,15 @@
       <c r="HH47" t="n">
         <v>75.09999999999999</v>
       </c>
+      <c r="HI47" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="HJ47" t="n">
+        <v>73</v>
+      </c>
+      <c r="HK47" t="n">
+        <v>72.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31648,6 +32071,15 @@
       <c r="HH48" t="n">
         <v>53</v>
       </c>
+      <c r="HI48" t="n">
+        <v>43</v>
+      </c>
+      <c r="HJ48" t="n">
+        <v>51</v>
+      </c>
+      <c r="HK48" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32300,6 +32732,15 @@
       <c r="HH49" t="n">
         <v>15</v>
       </c>
+      <c r="HI49" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ49" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32952,6 +33393,15 @@
       <c r="HH50" t="n">
         <v>10</v>
       </c>
+      <c r="HI50" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ50" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33604,6 +34054,15 @@
       <c r="HH51" t="n">
         <v>35</v>
       </c>
+      <c r="HI51" t="n">
+        <v>30</v>
+      </c>
+      <c r="HJ51" t="n">
+        <v>22</v>
+      </c>
+      <c r="HK51" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34256,6 +34715,15 @@
       <c r="HH52" t="n">
         <v>28</v>
       </c>
+      <c r="HI52" t="n">
+        <v>33</v>
+      </c>
+      <c r="HJ52" t="n">
+        <v>44</v>
+      </c>
+      <c r="HK52" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34908,6 +35376,15 @@
       <c r="HH53" t="n">
         <v>33</v>
       </c>
+      <c r="HI53" t="n">
+        <v>41</v>
+      </c>
+      <c r="HJ53" t="n">
+        <v>39</v>
+      </c>
+      <c r="HK53" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35560,6 +36037,15 @@
       <c r="HH54" t="n">
         <v>7</v>
       </c>
+      <c r="HI54" t="n">
+        <v>3</v>
+      </c>
+      <c r="HJ54" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36212,6 +36698,15 @@
       <c r="HH55" t="n">
         <v>13</v>
       </c>
+      <c r="HI55" t="n">
+        <v>8</v>
+      </c>
+      <c r="HJ55" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36864,6 +37359,15 @@
       <c r="HH56" t="n">
         <v>68.40000000000001</v>
       </c>
+      <c r="HI56" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="HJ56" t="n">
+        <v>60</v>
+      </c>
+      <c r="HK56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37516,6 +38020,15 @@
       <c r="HH57" t="n">
         <v>137</v>
       </c>
+      <c r="HI57" t="n">
+        <v>187</v>
+      </c>
+      <c r="HJ57" t="n">
+        <v>194</v>
+      </c>
+      <c r="HK57" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38168,6 +38681,15 @@
       <c r="HH58" t="n">
         <v>121</v>
       </c>
+      <c r="HI58" t="n">
+        <v>136</v>
+      </c>
+      <c r="HJ58" t="n">
+        <v>148</v>
+      </c>
+      <c r="HK58" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38820,6 +39342,15 @@
       <c r="HH59" t="n">
         <v>258</v>
       </c>
+      <c r="HI59" t="n">
+        <v>323</v>
+      </c>
+      <c r="HJ59" t="n">
+        <v>342</v>
+      </c>
+      <c r="HK59" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -39472,6 +40003,15 @@
       <c r="HH60" t="n">
         <v>1.13</v>
       </c>
+      <c r="HI60" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="HJ60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="HK60" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40124,6 +40664,15 @@
       <c r="HH61" t="n">
         <v>53</v>
       </c>
+      <c r="HI61" t="n">
+        <v>69</v>
+      </c>
+      <c r="HJ61" t="n">
+        <v>82</v>
+      </c>
+      <c r="HK61" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40776,6 +41325,15 @@
       <c r="HH62" t="n">
         <v>73</v>
       </c>
+      <c r="HI62" t="n">
+        <v>39</v>
+      </c>
+      <c r="HJ62" t="n">
+        <v>44</v>
+      </c>
+      <c r="HK62" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41428,6 +41986,15 @@
       <c r="HH63" t="n">
         <v>27</v>
       </c>
+      <c r="HI63" t="n">
+        <v>28</v>
+      </c>
+      <c r="HJ63" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK63" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42080,6 +42647,15 @@
       <c r="HH64" t="n">
         <v>22</v>
       </c>
+      <c r="HI64" t="n">
+        <v>16</v>
+      </c>
+      <c r="HJ64" t="n">
+        <v>13</v>
+      </c>
+      <c r="HK64" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -42732,6 +43308,15 @@
       <c r="HH65" t="n">
         <v>17</v>
       </c>
+      <c r="HI65" t="n">
+        <v>18</v>
+      </c>
+      <c r="HJ65" t="n">
+        <v>19</v>
+      </c>
+      <c r="HK65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43384,6 +43969,15 @@
       <c r="HH66" t="n">
         <v>7</v>
       </c>
+      <c r="HI66" t="n">
+        <v>13</v>
+      </c>
+      <c r="HJ66" t="n">
+        <v>13</v>
+      </c>
+      <c r="HK66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44036,6 +44630,15 @@
       <c r="HH67" t="n">
         <v>3</v>
       </c>
+      <c r="HI67" t="n">
+        <v>10</v>
+      </c>
+      <c r="HJ67" t="n">
+        <v>10</v>
+      </c>
+      <c r="HK67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -44688,6 +45291,15 @@
       <c r="HH68" t="n">
         <v>3</v>
       </c>
+      <c r="HI68" t="n">
+        <v>10</v>
+      </c>
+      <c r="HJ68" t="n">
+        <v>14</v>
+      </c>
+      <c r="HK68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45340,6 +45952,15 @@
       <c r="HH69" t="n">
         <v>5</v>
       </c>
+      <c r="HI69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45992,6 +46613,15 @@
       <c r="HH70" t="n">
         <v>15</v>
       </c>
+      <c r="HI70" t="n">
+        <v>25</v>
+      </c>
+      <c r="HJ70" t="n">
+        <v>27</v>
+      </c>
+      <c r="HK70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -46644,6 +47274,15 @@
       <c r="HH71" t="n">
         <v>46.7</v>
       </c>
+      <c r="HI71" t="n">
+        <v>52</v>
+      </c>
+      <c r="HJ71" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="HK71" t="n">
+        <v>38.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47296,6 +47935,15 @@
       <c r="HH72" t="n">
         <v>36.86</v>
       </c>
+      <c r="HI72" t="n">
+        <v>24.85</v>
+      </c>
+      <c r="HJ72" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="HK72" t="n">
+        <v>37.86</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -47948,6 +48596,15 @@
       <c r="HH73" t="n">
         <v>17.2</v>
       </c>
+      <c r="HI73" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="HJ73" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="HK73" t="n">
+        <v>14.72</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -48600,6 +49257,15 @@
       <c r="HH74" t="n">
         <v>20</v>
       </c>
+      <c r="HI74" t="n">
+        <v>40</v>
+      </c>
+      <c r="HJ74" t="n">
+        <v>18</v>
+      </c>
+      <c r="HK74" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49252,6 +49918,15 @@
       <c r="HH75" t="n">
         <v>47</v>
       </c>
+      <c r="HI75" t="n">
+        <v>39</v>
+      </c>
+      <c r="HJ75" t="n">
+        <v>50</v>
+      </c>
+      <c r="HK75" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -49904,6 +50579,15 @@
       <c r="HH76" t="n">
         <v>29</v>
       </c>
+      <c r="HI76" t="n">
+        <v>35</v>
+      </c>
+      <c r="HJ76" t="n">
+        <v>25</v>
+      </c>
+      <c r="HK76" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -50556,6 +51240,15 @@
       <c r="HH77" t="n">
         <v>36</v>
       </c>
+      <c r="HI77" t="n">
+        <v>48</v>
+      </c>
+      <c r="HJ77" t="n">
+        <v>58</v>
+      </c>
+      <c r="HK77" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -51208,6 +51901,15 @@
       <c r="HH78" t="n">
         <v>2.4</v>
       </c>
+      <c r="HI78" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="HJ78" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="HK78" t="n">
+        <v>2.61</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -51860,6 +52562,15 @@
       <c r="HH79" t="n">
         <v>5.14</v>
       </c>
+      <c r="HI79" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="HJ79" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="HK79" t="n">
+        <v>6.71</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -52512,6 +53223,15 @@
       <c r="HH80" t="n">
         <v>27.8</v>
       </c>
+      <c r="HI80" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="HJ80" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="HK80" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -53164,6 +53884,15 @@
       <c r="HH81" t="n">
         <v>19.4</v>
       </c>
+      <c r="HI81" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="HJ81" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="HK81" t="n">
+        <v>14.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -53816,6 +54545,15 @@
       <c r="HH82" t="n">
         <v>187.2</v>
       </c>
+      <c r="HI82" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="HJ82" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="HK82" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -54468,6 +55206,15 @@
       <c r="HH83" t="n">
         <v>85.3</v>
       </c>
+      <c r="HI83" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="HJ83" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="HK83" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -55120,6 +55867,15 @@
       <c r="HH84" t="n">
         <v>25.33</v>
       </c>
+      <c r="HI84" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="HJ84" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="HK84" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -55772,6 +56528,15 @@
       <c r="HH85" t="n">
         <v>83</v>
       </c>
+      <c r="HI85" t="n">
+        <v>127</v>
+      </c>
+      <c r="HJ85" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="HK85" t="n">
+        <v>96.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -56424,6 +57189,15 @@
       <c r="HH86" t="n">
         <v>10</v>
       </c>
+      <c r="HI86" t="n">
+        <v>7</v>
+      </c>
+      <c r="HJ86" t="n">
+        <v>8</v>
+      </c>
+      <c r="HK86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -57076,6 +57850,15 @@
       <c r="HH87" t="n">
         <v>2</v>
       </c>
+      <c r="HI87" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ87" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -57728,6 +58511,15 @@
       <c r="HH88" t="n">
         <v>5</v>
       </c>
+      <c r="HI88" t="n">
+        <v>1</v>
+      </c>
+      <c r="HJ88" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -58380,6 +59172,15 @@
       <c r="HH89" t="n">
         <v>5</v>
       </c>
+      <c r="HI89" t="n">
+        <v>10</v>
+      </c>
+      <c r="HJ89" t="n">
+        <v>4</v>
+      </c>
+      <c r="HK89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -59032,6 +59833,15 @@
       <c r="HH90" t="n">
         <v>102</v>
       </c>
+      <c r="HI90" t="n">
+        <v>119</v>
+      </c>
+      <c r="HJ90" t="n">
+        <v>130</v>
+      </c>
+      <c r="HK90" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -59684,6 +60494,15 @@
       <c r="HH91" t="n">
         <v>155</v>
       </c>
+      <c r="HI91" t="n">
+        <v>190</v>
+      </c>
+      <c r="HJ91" t="n">
+        <v>217</v>
+      </c>
+      <c r="HK91" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -60336,6 +61155,15 @@
       <c r="HH92" t="n">
         <v>185</v>
       </c>
+      <c r="HI92" t="n">
+        <v>227</v>
+      </c>
+      <c r="HJ92" t="n">
+        <v>253</v>
+      </c>
+      <c r="HK92" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -60988,6 +61816,15 @@
       <c r="HH93" t="n">
         <v>71.7</v>
       </c>
+      <c r="HI93" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="HJ93" t="n">
+        <v>74</v>
+      </c>
+      <c r="HK93" t="n">
+        <v>68.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -61640,6 +62477,15 @@
       <c r="HH94" t="n">
         <v>47</v>
       </c>
+      <c r="HI94" t="n">
+        <v>39</v>
+      </c>
+      <c r="HJ94" t="n">
+        <v>50</v>
+      </c>
+      <c r="HK94" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -62292,6 +63138,15 @@
       <c r="HH95" t="n">
         <v>5</v>
       </c>
+      <c r="HI95" t="n">
+        <v>6</v>
+      </c>
+      <c r="HJ95" t="n">
+        <v>11</v>
+      </c>
+      <c r="HK95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -62944,6 +63799,15 @@
       <c r="HH96" t="n">
         <v>5</v>
       </c>
+      <c r="HI96" t="n">
+        <v>14</v>
+      </c>
+      <c r="HJ96" t="n">
+        <v>13</v>
+      </c>
+      <c r="HK96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -63596,6 +64460,15 @@
       <c r="HH97" t="n">
         <v>20</v>
       </c>
+      <c r="HI97" t="n">
+        <v>40</v>
+      </c>
+      <c r="HJ97" t="n">
+        <v>18</v>
+      </c>
+      <c r="HK97" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -64248,6 +65121,15 @@
       <c r="HH98" t="n">
         <v>29</v>
       </c>
+      <c r="HI98" t="n">
+        <v>35</v>
+      </c>
+      <c r="HJ98" t="n">
+        <v>25</v>
+      </c>
+      <c r="HK98" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -64900,6 +65782,15 @@
       <c r="HH99" t="n">
         <v>38</v>
       </c>
+      <c r="HI99" t="n">
+        <v>34</v>
+      </c>
+      <c r="HJ99" t="n">
+        <v>39</v>
+      </c>
+      <c r="HK99" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -65552,6 +66443,15 @@
       <c r="HH100" t="n">
         <v>5</v>
       </c>
+      <c r="HI100" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ100" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -66204,6 +67104,15 @@
       <c r="HH101" t="n">
         <v>3</v>
       </c>
+      <c r="HI101" t="n">
+        <v>10</v>
+      </c>
+      <c r="HJ101" t="n">
+        <v>10</v>
+      </c>
+      <c r="HK101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -66856,8 +67765,17 @@
       <c r="HH102" t="n">
         <v>42.9</v>
       </c>
+      <c r="HI102" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="HJ102" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="HK102" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/North Melbourne_stats.xlsx
+++ b/North Melbourne_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HK102"/>
+  <dimension ref="A1:HP102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1013,6 +1013,21 @@
       <c r="HK1" t="n">
         <v>10262</v>
       </c>
+      <c r="HL1" t="n">
+        <v>10277</v>
+      </c>
+      <c r="HM1" t="n">
+        <v>10285</v>
+      </c>
+      <c r="HN1" t="n">
+        <v>10292</v>
+      </c>
+      <c r="HO1" t="n">
+        <v>10302</v>
+      </c>
+      <c r="HP1" t="n">
+        <v>10309</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1674,6 +1689,21 @@
       <c r="HK2" t="n">
         <v>2020</v>
       </c>
+      <c r="HL2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2335,6 +2365,21 @@
       <c r="HK3" t="n">
         <v>12</v>
       </c>
+      <c r="HL3" t="n">
+        <v>13</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>14</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>16</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>17</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2996,6 +3041,21 @@
       <c r="HK4" t="n">
         <v>0</v>
       </c>
+      <c r="HL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3657,6 +3717,21 @@
       <c r="HK5" t="n">
         <v>1</v>
       </c>
+      <c r="HL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4318,6 +4393,21 @@
       <c r="HK6" t="n">
         <v>52</v>
       </c>
+      <c r="HL6" t="n">
+        <v>35</v>
+      </c>
+      <c r="HM6" t="n">
+        <v>28</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>42</v>
+      </c>
+      <c r="HO6" t="n">
+        <v>35</v>
+      </c>
+      <c r="HP6" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4979,6 +5069,21 @@
       <c r="HK7" t="n">
         <v>53</v>
       </c>
+      <c r="HL7" t="n">
+        <v>65</v>
+      </c>
+      <c r="HM7" t="n">
+        <v>91</v>
+      </c>
+      <c r="HN7" t="n">
+        <v>78</v>
+      </c>
+      <c r="HO7" t="n">
+        <v>99</v>
+      </c>
+      <c r="HP7" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5640,6 +5745,21 @@
       <c r="HK8" t="n">
         <v>-1</v>
       </c>
+      <c r="HL8" t="n">
+        <v>-30</v>
+      </c>
+      <c r="HM8" t="n">
+        <v>-63</v>
+      </c>
+      <c r="HN8" t="n">
+        <v>-36</v>
+      </c>
+      <c r="HO8" t="n">
+        <v>-64</v>
+      </c>
+      <c r="HP8" t="n">
+        <v>-15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6301,6 +6421,21 @@
       <c r="HK9" t="n">
         <v>0</v>
       </c>
+      <c r="HL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6962,6 +7097,21 @@
       <c r="HK10" t="n">
         <v>2</v>
       </c>
+      <c r="HL10" t="n">
+        <v>4</v>
+      </c>
+      <c r="HM10" t="n">
+        <v>8</v>
+      </c>
+      <c r="HN10" t="n">
+        <v>13</v>
+      </c>
+      <c r="HO10" t="n">
+        <v>6</v>
+      </c>
+      <c r="HP10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7623,6 +7773,21 @@
       <c r="HK11" t="n">
         <v>171</v>
       </c>
+      <c r="HL11" t="n">
+        <v>192</v>
+      </c>
+      <c r="HM11" t="n">
+        <v>167</v>
+      </c>
+      <c r="HN11" t="n">
+        <v>152</v>
+      </c>
+      <c r="HO11" t="n">
+        <v>123</v>
+      </c>
+      <c r="HP11" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8284,6 +8449,21 @@
       <c r="HK12" t="n">
         <v>137</v>
       </c>
+      <c r="HL12" t="n">
+        <v>140</v>
+      </c>
+      <c r="HM12" t="n">
+        <v>106</v>
+      </c>
+      <c r="HN12" t="n">
+        <v>122</v>
+      </c>
+      <c r="HO12" t="n">
+        <v>118</v>
+      </c>
+      <c r="HP12" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8945,6 +9125,21 @@
       <c r="HK13" t="n">
         <v>308</v>
       </c>
+      <c r="HL13" t="n">
+        <v>332</v>
+      </c>
+      <c r="HM13" t="n">
+        <v>273</v>
+      </c>
+      <c r="HN13" t="n">
+        <v>274</v>
+      </c>
+      <c r="HO13" t="n">
+        <v>241</v>
+      </c>
+      <c r="HP13" t="n">
+        <v>360</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9606,6 +9801,21 @@
       <c r="HK14" t="n">
         <v>1.25</v>
       </c>
+      <c r="HL14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="HM14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="HN14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="HO14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="HP14" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10267,6 +10477,21 @@
       <c r="HK15" t="n">
         <v>77</v>
       </c>
+      <c r="HL15" t="n">
+        <v>88</v>
+      </c>
+      <c r="HM15" t="n">
+        <v>71</v>
+      </c>
+      <c r="HN15" t="n">
+        <v>65</v>
+      </c>
+      <c r="HO15" t="n">
+        <v>48</v>
+      </c>
+      <c r="HP15" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10928,6 +11153,21 @@
       <c r="HK16" t="n">
         <v>50</v>
       </c>
+      <c r="HL16" t="n">
+        <v>46</v>
+      </c>
+      <c r="HM16" t="n">
+        <v>30</v>
+      </c>
+      <c r="HN16" t="n">
+        <v>49</v>
+      </c>
+      <c r="HO16" t="n">
+        <v>36</v>
+      </c>
+      <c r="HP16" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11589,6 +11829,21 @@
       <c r="HK17" t="n">
         <v>25</v>
       </c>
+      <c r="HL17" t="n">
+        <v>28</v>
+      </c>
+      <c r="HM17" t="n">
+        <v>23</v>
+      </c>
+      <c r="HN17" t="n">
+        <v>24</v>
+      </c>
+      <c r="HO17" t="n">
+        <v>28</v>
+      </c>
+      <c r="HP17" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12250,6 +12505,21 @@
       <c r="HK18" t="n">
         <v>19</v>
       </c>
+      <c r="HL18" t="n">
+        <v>9</v>
+      </c>
+      <c r="HM18" t="n">
+        <v>16</v>
+      </c>
+      <c r="HN18" t="n">
+        <v>14</v>
+      </c>
+      <c r="HO18" t="n">
+        <v>12</v>
+      </c>
+      <c r="HP18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12911,6 +13181,21 @@
       <c r="HK19" t="n">
         <v>13</v>
       </c>
+      <c r="HL19" t="n">
+        <v>14</v>
+      </c>
+      <c r="HM19" t="n">
+        <v>19</v>
+      </c>
+      <c r="HN19" t="n">
+        <v>16</v>
+      </c>
+      <c r="HO19" t="n">
+        <v>17</v>
+      </c>
+      <c r="HP19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13572,6 +13857,21 @@
       <c r="HK20" t="n">
         <v>8</v>
       </c>
+      <c r="HL20" t="n">
+        <v>5</v>
+      </c>
+      <c r="HM20" t="n">
+        <v>4</v>
+      </c>
+      <c r="HN20" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO20" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14233,6 +14533,21 @@
       <c r="HK21" t="n">
         <v>6</v>
       </c>
+      <c r="HL21" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM21" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN21" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO21" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14894,6 +15209,21 @@
       <c r="HK22" t="n">
         <v>4</v>
       </c>
+      <c r="HL22" t="n">
+        <v>4</v>
+      </c>
+      <c r="HM22" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN22" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO22" t="n">
+        <v>2</v>
+      </c>
+      <c r="HP22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15555,6 +15885,21 @@
       <c r="HK23" t="n">
         <v>0</v>
       </c>
+      <c r="HL23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO23" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16216,6 +16561,21 @@
       <c r="HK24" t="n">
         <v>12</v>
       </c>
+      <c r="HL24" t="n">
+        <v>10</v>
+      </c>
+      <c r="HM24" t="n">
+        <v>8</v>
+      </c>
+      <c r="HN24" t="n">
+        <v>12</v>
+      </c>
+      <c r="HO24" t="n">
+        <v>10</v>
+      </c>
+      <c r="HP24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16877,6 +17237,21 @@
       <c r="HK25" t="n">
         <v>66.7</v>
       </c>
+      <c r="HL25" t="n">
+        <v>50</v>
+      </c>
+      <c r="HM25" t="n">
+        <v>50</v>
+      </c>
+      <c r="HN25" t="n">
+        <v>50</v>
+      </c>
+      <c r="HO25" t="n">
+        <v>50</v>
+      </c>
+      <c r="HP25" t="n">
+        <v>28.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17538,6 +17913,21 @@
       <c r="HK26" t="n">
         <v>38.5</v>
       </c>
+      <c r="HL26" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="HM26" t="n">
+        <v>68.25</v>
+      </c>
+      <c r="HN26" t="n">
+        <v>45.67</v>
+      </c>
+      <c r="HO26" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="HP26" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18199,6 +18589,21 @@
       <c r="HK27" t="n">
         <v>25.67</v>
       </c>
+      <c r="HL27" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="HM27" t="n">
+        <v>34.12</v>
+      </c>
+      <c r="HN27" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="HO27" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="HP27" t="n">
+        <v>25.71</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18860,6 +19265,21 @@
       <c r="HK28" t="n">
         <v>32</v>
       </c>
+      <c r="HL28" t="n">
+        <v>27</v>
+      </c>
+      <c r="HM28" t="n">
+        <v>21</v>
+      </c>
+      <c r="HN28" t="n">
+        <v>23</v>
+      </c>
+      <c r="HO28" t="n">
+        <v>23</v>
+      </c>
+      <c r="HP28" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19521,6 +19941,21 @@
       <c r="HK29" t="n">
         <v>44</v>
       </c>
+      <c r="HL29" t="n">
+        <v>39</v>
+      </c>
+      <c r="HM29" t="n">
+        <v>56</v>
+      </c>
+      <c r="HN29" t="n">
+        <v>50</v>
+      </c>
+      <c r="HO29" t="n">
+        <v>46</v>
+      </c>
+      <c r="HP29" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20182,6 +20617,21 @@
       <c r="HK30" t="n">
         <v>39</v>
       </c>
+      <c r="HL30" t="n">
+        <v>32</v>
+      </c>
+      <c r="HM30" t="n">
+        <v>33</v>
+      </c>
+      <c r="HN30" t="n">
+        <v>30</v>
+      </c>
+      <c r="HO30" t="n">
+        <v>34</v>
+      </c>
+      <c r="HP30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20843,6 +21293,21 @@
       <c r="HK31" t="n">
         <v>35</v>
       </c>
+      <c r="HL31" t="n">
+        <v>43</v>
+      </c>
+      <c r="HM31" t="n">
+        <v>37</v>
+      </c>
+      <c r="HN31" t="n">
+        <v>35</v>
+      </c>
+      <c r="HO31" t="n">
+        <v>35</v>
+      </c>
+      <c r="HP31" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21504,6 +21969,21 @@
       <c r="HK32" t="n">
         <v>2.92</v>
       </c>
+      <c r="HL32" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="HM32" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="HN32" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="HO32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="HP32" t="n">
+        <v>3.07</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22165,6 +22645,21 @@
       <c r="HK33" t="n">
         <v>4.38</v>
       </c>
+      <c r="HL33" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="HM33" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="HN33" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="HO33" t="n">
+        <v>7</v>
+      </c>
+      <c r="HP33" t="n">
+        <v>10.75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22826,6 +23321,21 @@
       <c r="HK34" t="n">
         <v>34.3</v>
       </c>
+      <c r="HL34" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="HM34" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="HN34" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="HO34" t="n">
+        <v>20</v>
+      </c>
+      <c r="HP34" t="n">
+        <v>27.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23487,6 +23997,21 @@
       <c r="HK35" t="n">
         <v>22.9</v>
       </c>
+      <c r="HL35" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="HM35" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="HN35" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="HO35" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="HP35" t="n">
+        <v>9.300000000000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24148,6 +24673,21 @@
       <c r="HK36" t="n">
         <v>189.6</v>
       </c>
+      <c r="HL36" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="HM36" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="HN36" t="n">
+        <v>189.3</v>
+      </c>
+      <c r="HO36" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="HP36" t="n">
+        <v>189.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24809,6 +25349,21 @@
       <c r="HK37" t="n">
         <v>86.40000000000001</v>
       </c>
+      <c r="HL37" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="HM37" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="HN37" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="HO37" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="HP37" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25470,6 +26025,21 @@
       <c r="HK38" t="n">
         <v>24.49</v>
       </c>
+      <c r="HL38" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="HM38" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HN38" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HO38" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="HP38" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26131,6 +26701,21 @@
       <c r="HK39" t="n">
         <v>68.09999999999999</v>
       </c>
+      <c r="HL39" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="HM39" t="n">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="HN39" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="HO39" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="HP39" t="n">
+        <v>93.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26792,6 +27377,21 @@
       <c r="HK40" t="n">
         <v>12</v>
       </c>
+      <c r="HL40" t="n">
+        <v>11</v>
+      </c>
+      <c r="HM40" t="n">
+        <v>9</v>
+      </c>
+      <c r="HN40" t="n">
+        <v>8</v>
+      </c>
+      <c r="HO40" t="n">
+        <v>9</v>
+      </c>
+      <c r="HP40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27453,6 +28053,21 @@
       <c r="HK41" t="n">
         <v>5</v>
       </c>
+      <c r="HL41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HM41" t="n">
+        <v>6</v>
+      </c>
+      <c r="HN41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HP41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28114,6 +28729,21 @@
       <c r="HK42" t="n">
         <v>2</v>
       </c>
+      <c r="HL42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HM42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN42" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO42" t="n">
+        <v>4</v>
+      </c>
+      <c r="HP42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28775,6 +29405,21 @@
       <c r="HK43" t="n">
         <v>3</v>
       </c>
+      <c r="HL43" t="n">
+        <v>4</v>
+      </c>
+      <c r="HM43" t="n">
+        <v>4</v>
+      </c>
+      <c r="HN43" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO43" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29436,6 +30081,21 @@
       <c r="HK44" t="n">
         <v>116</v>
       </c>
+      <c r="HL44" t="n">
+        <v>113</v>
+      </c>
+      <c r="HM44" t="n">
+        <v>113</v>
+      </c>
+      <c r="HN44" t="n">
+        <v>109</v>
+      </c>
+      <c r="HO44" t="n">
+        <v>95</v>
+      </c>
+      <c r="HP44" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30097,6 +30757,21 @@
       <c r="HK45" t="n">
         <v>182</v>
       </c>
+      <c r="HL45" t="n">
+        <v>217</v>
+      </c>
+      <c r="HM45" t="n">
+        <v>149</v>
+      </c>
+      <c r="HN45" t="n">
+        <v>164</v>
+      </c>
+      <c r="HO45" t="n">
+        <v>139</v>
+      </c>
+      <c r="HP45" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30758,6 +31433,21 @@
       <c r="HK46" t="n">
         <v>223</v>
       </c>
+      <c r="HL46" t="n">
+        <v>252</v>
+      </c>
+      <c r="HM46" t="n">
+        <v>188</v>
+      </c>
+      <c r="HN46" t="n">
+        <v>194</v>
+      </c>
+      <c r="HO46" t="n">
+        <v>170</v>
+      </c>
+      <c r="HP46" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31419,6 +32109,21 @@
       <c r="HK47" t="n">
         <v>72.40000000000001</v>
       </c>
+      <c r="HL47" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="HM47" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="HN47" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="HO47" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="HP47" t="n">
+        <v>73.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32080,6 +32785,21 @@
       <c r="HK48" t="n">
         <v>44</v>
       </c>
+      <c r="HL48" t="n">
+        <v>39</v>
+      </c>
+      <c r="HM48" t="n">
+        <v>56</v>
+      </c>
+      <c r="HN48" t="n">
+        <v>50</v>
+      </c>
+      <c r="HO48" t="n">
+        <v>46</v>
+      </c>
+      <c r="HP48" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32741,6 +33461,21 @@
       <c r="HK49" t="n">
         <v>15</v>
       </c>
+      <c r="HL49" t="n">
+        <v>11</v>
+      </c>
+      <c r="HM49" t="n">
+        <v>15</v>
+      </c>
+      <c r="HN49" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO49" t="n">
+        <v>6</v>
+      </c>
+      <c r="HP49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33402,6 +34137,21 @@
       <c r="HK50" t="n">
         <v>6</v>
       </c>
+      <c r="HL50" t="n">
+        <v>9</v>
+      </c>
+      <c r="HM50" t="n">
+        <v>4</v>
+      </c>
+      <c r="HN50" t="n">
+        <v>10</v>
+      </c>
+      <c r="HO50" t="n">
+        <v>6</v>
+      </c>
+      <c r="HP50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34063,6 +34813,21 @@
       <c r="HK51" t="n">
         <v>32</v>
       </c>
+      <c r="HL51" t="n">
+        <v>27</v>
+      </c>
+      <c r="HM51" t="n">
+        <v>21</v>
+      </c>
+      <c r="HN51" t="n">
+        <v>23</v>
+      </c>
+      <c r="HO51" t="n">
+        <v>23</v>
+      </c>
+      <c r="HP51" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34724,6 +35489,21 @@
       <c r="HK52" t="n">
         <v>39</v>
       </c>
+      <c r="HL52" t="n">
+        <v>32</v>
+      </c>
+      <c r="HM52" t="n">
+        <v>33</v>
+      </c>
+      <c r="HN52" t="n">
+        <v>30</v>
+      </c>
+      <c r="HO52" t="n">
+        <v>34</v>
+      </c>
+      <c r="HP52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35385,6 +36165,21 @@
       <c r="HK53" t="n">
         <v>30</v>
       </c>
+      <c r="HL53" t="n">
+        <v>42</v>
+      </c>
+      <c r="HM53" t="n">
+        <v>35</v>
+      </c>
+      <c r="HN53" t="n">
+        <v>43</v>
+      </c>
+      <c r="HO53" t="n">
+        <v>30</v>
+      </c>
+      <c r="HP53" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36046,6 +36841,21 @@
       <c r="HK54" t="n">
         <v>10</v>
       </c>
+      <c r="HL54" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM54" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN54" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO54" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36707,6 +37517,21 @@
       <c r="HK55" t="n">
         <v>6</v>
       </c>
+      <c r="HL55" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM55" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN55" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO55" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37368,6 +38193,21 @@
       <c r="HK56" t="n">
         <v>75</v>
       </c>
+      <c r="HL56" t="n">
+        <v>20</v>
+      </c>
+      <c r="HM56" t="n">
+        <v>75</v>
+      </c>
+      <c r="HN56" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="HO56" t="n">
+        <v>100</v>
+      </c>
+      <c r="HP56" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38029,6 +38869,21 @@
       <c r="HK57" t="n">
         <v>167</v>
       </c>
+      <c r="HL57" t="n">
+        <v>194</v>
+      </c>
+      <c r="HM57" t="n">
+        <v>189</v>
+      </c>
+      <c r="HN57" t="n">
+        <v>185</v>
+      </c>
+      <c r="HO57" t="n">
+        <v>197</v>
+      </c>
+      <c r="HP57" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38690,6 +39545,21 @@
       <c r="HK58" t="n">
         <v>98</v>
       </c>
+      <c r="HL58" t="n">
+        <v>165</v>
+      </c>
+      <c r="HM58" t="n">
+        <v>116</v>
+      </c>
+      <c r="HN58" t="n">
+        <v>148</v>
+      </c>
+      <c r="HO58" t="n">
+        <v>137</v>
+      </c>
+      <c r="HP58" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39351,6 +40221,21 @@
       <c r="HK59" t="n">
         <v>265</v>
       </c>
+      <c r="HL59" t="n">
+        <v>359</v>
+      </c>
+      <c r="HM59" t="n">
+        <v>305</v>
+      </c>
+      <c r="HN59" t="n">
+        <v>333</v>
+      </c>
+      <c r="HO59" t="n">
+        <v>334</v>
+      </c>
+      <c r="HP59" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40012,6 +40897,21 @@
       <c r="HK60" t="n">
         <v>1.7</v>
       </c>
+      <c r="HL60" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="HM60" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="HN60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="HO60" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="HP60" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40673,6 +41573,21 @@
       <c r="HK61" t="n">
         <v>82</v>
       </c>
+      <c r="HL61" t="n">
+        <v>85</v>
+      </c>
+      <c r="HM61" t="n">
+        <v>80</v>
+      </c>
+      <c r="HN61" t="n">
+        <v>63</v>
+      </c>
+      <c r="HO61" t="n">
+        <v>94</v>
+      </c>
+      <c r="HP61" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41334,6 +42249,21 @@
       <c r="HK62" t="n">
         <v>49</v>
       </c>
+      <c r="HL62" t="n">
+        <v>40</v>
+      </c>
+      <c r="HM62" t="n">
+        <v>33</v>
+      </c>
+      <c r="HN62" t="n">
+        <v>63</v>
+      </c>
+      <c r="HO62" t="n">
+        <v>42</v>
+      </c>
+      <c r="HP62" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41995,6 +42925,21 @@
       <c r="HK63" t="n">
         <v>36</v>
       </c>
+      <c r="HL63" t="n">
+        <v>24</v>
+      </c>
+      <c r="HM63" t="n">
+        <v>25</v>
+      </c>
+      <c r="HN63" t="n">
+        <v>31</v>
+      </c>
+      <c r="HO63" t="n">
+        <v>26</v>
+      </c>
+      <c r="HP63" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42656,6 +43601,21 @@
       <c r="HK64" t="n">
         <v>13</v>
       </c>
+      <c r="HL64" t="n">
+        <v>14</v>
+      </c>
+      <c r="HM64" t="n">
+        <v>19</v>
+      </c>
+      <c r="HN64" t="n">
+        <v>16</v>
+      </c>
+      <c r="HO64" t="n">
+        <v>17</v>
+      </c>
+      <c r="HP64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43317,6 +44277,21 @@
       <c r="HK65" t="n">
         <v>19</v>
       </c>
+      <c r="HL65" t="n">
+        <v>9</v>
+      </c>
+      <c r="HM65" t="n">
+        <v>16</v>
+      </c>
+      <c r="HN65" t="n">
+        <v>14</v>
+      </c>
+      <c r="HO65" t="n">
+        <v>12</v>
+      </c>
+      <c r="HP65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43978,6 +44953,21 @@
       <c r="HK66" t="n">
         <v>7</v>
       </c>
+      <c r="HL66" t="n">
+        <v>10</v>
+      </c>
+      <c r="HM66" t="n">
+        <v>12</v>
+      </c>
+      <c r="HN66" t="n">
+        <v>11</v>
+      </c>
+      <c r="HO66" t="n">
+        <v>15</v>
+      </c>
+      <c r="HP66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44639,6 +45629,21 @@
       <c r="HK67" t="n">
         <v>5</v>
       </c>
+      <c r="HL67" t="n">
+        <v>5</v>
+      </c>
+      <c r="HM67" t="n">
+        <v>8</v>
+      </c>
+      <c r="HN67" t="n">
+        <v>7</v>
+      </c>
+      <c r="HO67" t="n">
+        <v>10</v>
+      </c>
+      <c r="HP67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45300,6 +46305,21 @@
       <c r="HK68" t="n">
         <v>9</v>
       </c>
+      <c r="HL68" t="n">
+        <v>4</v>
+      </c>
+      <c r="HM68" t="n">
+        <v>15</v>
+      </c>
+      <c r="HN68" t="n">
+        <v>11</v>
+      </c>
+      <c r="HO68" t="n">
+        <v>7</v>
+      </c>
+      <c r="HP68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45961,6 +46981,21 @@
       <c r="HK69" t="n">
         <v>2</v>
       </c>
+      <c r="HL69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM69" t="n">
+        <v>4</v>
+      </c>
+      <c r="HN69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HP69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46622,6 +47657,21 @@
       <c r="HK70" t="n">
         <v>18</v>
       </c>
+      <c r="HL70" t="n">
+        <v>15</v>
+      </c>
+      <c r="HM70" t="n">
+        <v>31</v>
+      </c>
+      <c r="HN70" t="n">
+        <v>23</v>
+      </c>
+      <c r="HO70" t="n">
+        <v>24</v>
+      </c>
+      <c r="HP70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47283,6 +48333,21 @@
       <c r="HK71" t="n">
         <v>38.9</v>
       </c>
+      <c r="HL71" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HM71" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="HN71" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="HO71" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="HP71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47944,6 +49009,21 @@
       <c r="HK72" t="n">
         <v>37.86</v>
       </c>
+      <c r="HL72" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="HM72" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="HN72" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="HO72" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="HP72" t="n">
+        <v>39.71</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48605,6 +49685,21 @@
       <c r="HK73" t="n">
         <v>14.72</v>
       </c>
+      <c r="HL73" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="HM73" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="HN73" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="HO73" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="HP73" t="n">
+        <v>19.86</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49266,6 +50361,21 @@
       <c r="HK74" t="n">
         <v>26</v>
       </c>
+      <c r="HL74" t="n">
+        <v>24</v>
+      </c>
+      <c r="HM74" t="n">
+        <v>37</v>
+      </c>
+      <c r="HN74" t="n">
+        <v>38</v>
+      </c>
+      <c r="HO74" t="n">
+        <v>29</v>
+      </c>
+      <c r="HP74" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49927,6 +51037,21 @@
       <c r="HK75" t="n">
         <v>42</v>
       </c>
+      <c r="HL75" t="n">
+        <v>50</v>
+      </c>
+      <c r="HM75" t="n">
+        <v>41</v>
+      </c>
+      <c r="HN75" t="n">
+        <v>44</v>
+      </c>
+      <c r="HO75" t="n">
+        <v>40</v>
+      </c>
+      <c r="HP75" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50588,6 +51713,21 @@
       <c r="HK76" t="n">
         <v>27</v>
       </c>
+      <c r="HL76" t="n">
+        <v>35</v>
+      </c>
+      <c r="HM76" t="n">
+        <v>33</v>
+      </c>
+      <c r="HN76" t="n">
+        <v>26</v>
+      </c>
+      <c r="HO76" t="n">
+        <v>30</v>
+      </c>
+      <c r="HP76" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51249,6 +52389,21 @@
       <c r="HK77" t="n">
         <v>47</v>
       </c>
+      <c r="HL77" t="n">
+        <v>43</v>
+      </c>
+      <c r="HM77" t="n">
+        <v>45</v>
+      </c>
+      <c r="HN77" t="n">
+        <v>41</v>
+      </c>
+      <c r="HO77" t="n">
+        <v>51</v>
+      </c>
+      <c r="HP77" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -51910,6 +53065,21 @@
       <c r="HK78" t="n">
         <v>2.61</v>
       </c>
+      <c r="HL78" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="HM78" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="HN78" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="HO78" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="HP78" t="n">
+        <v>2.86</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52571,6 +53741,21 @@
       <c r="HK79" t="n">
         <v>6.71</v>
       </c>
+      <c r="HL79" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="HM79" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="HN79" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="HO79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="HP79" t="n">
+        <v>5.71</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -53232,6 +54417,21 @@
       <c r="HK80" t="n">
         <v>34</v>
       </c>
+      <c r="HL80" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="HM80" t="n">
+        <v>60</v>
+      </c>
+      <c r="HN80" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="HO80" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="HP80" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -53893,6 +55093,21 @@
       <c r="HK81" t="n">
         <v>14.9</v>
       </c>
+      <c r="HL81" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="HM81" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="HN81" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="HO81" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="HP81" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54554,6 +55769,21 @@
       <c r="HK82" t="n">
         <v>188.6</v>
       </c>
+      <c r="HL82" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="HM82" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="HN82" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="HO82" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="HP82" t="n">
+        <v>189.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -55215,6 +56445,21 @@
       <c r="HK83" t="n">
         <v>88</v>
       </c>
+      <c r="HL83" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="HM83" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="HN83" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="HO83" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="HP83" t="n">
+        <v>87.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -55876,6 +57121,21 @@
       <c r="HK84" t="n">
         <v>25.49</v>
       </c>
+      <c r="HL84" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="HM84" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="HN84" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="HO84" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="HP84" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56537,6 +57797,21 @@
       <c r="HK85" t="n">
         <v>96.5</v>
       </c>
+      <c r="HL85" t="n">
+        <v>115.6</v>
+      </c>
+      <c r="HM85" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="HN85" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="HO85" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="HP85" t="n">
+        <v>103.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -57198,6 +58473,21 @@
       <c r="HK86" t="n">
         <v>6</v>
       </c>
+      <c r="HL86" t="n">
+        <v>6</v>
+      </c>
+      <c r="HM86" t="n">
+        <v>12</v>
+      </c>
+      <c r="HN86" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO86" t="n">
+        <v>8</v>
+      </c>
+      <c r="HP86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -57859,6 +59149,21 @@
       <c r="HK87" t="n">
         <v>6</v>
       </c>
+      <c r="HL87" t="n">
+        <v>4</v>
+      </c>
+      <c r="HM87" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO87" t="n">
+        <v>8</v>
+      </c>
+      <c r="HP87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -58520,6 +59825,21 @@
       <c r="HK88" t="n">
         <v>6</v>
       </c>
+      <c r="HL88" t="n">
+        <v>6</v>
+      </c>
+      <c r="HM88" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN88" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO88" t="n">
+        <v>2</v>
+      </c>
+      <c r="HP88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -59181,6 +60501,21 @@
       <c r="HK89" t="n">
         <v>4</v>
       </c>
+      <c r="HL89" t="n">
+        <v>6</v>
+      </c>
+      <c r="HM89" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN89" t="n">
+        <v>7</v>
+      </c>
+      <c r="HO89" t="n">
+        <v>4</v>
+      </c>
+      <c r="HP89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -59842,6 +61177,21 @@
       <c r="HK90" t="n">
         <v>114</v>
       </c>
+      <c r="HL90" t="n">
+        <v>118</v>
+      </c>
+      <c r="HM90" t="n">
+        <v>131</v>
+      </c>
+      <c r="HN90" t="n">
+        <v>119</v>
+      </c>
+      <c r="HO90" t="n">
+        <v>123</v>
+      </c>
+      <c r="HP90" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -60503,6 +61853,21 @@
       <c r="HK91" t="n">
         <v>151</v>
       </c>
+      <c r="HL91" t="n">
+        <v>236</v>
+      </c>
+      <c r="HM91" t="n">
+        <v>178</v>
+      </c>
+      <c r="HN91" t="n">
+        <v>209</v>
+      </c>
+      <c r="HO91" t="n">
+        <v>212</v>
+      </c>
+      <c r="HP91" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -61164,6 +62529,21 @@
       <c r="HK92" t="n">
         <v>182</v>
       </c>
+      <c r="HL92" t="n">
+        <v>275</v>
+      </c>
+      <c r="HM92" t="n">
+        <v>213</v>
+      </c>
+      <c r="HN92" t="n">
+        <v>244</v>
+      </c>
+      <c r="HO92" t="n">
+        <v>259</v>
+      </c>
+      <c r="HP92" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -61825,6 +63205,21 @@
       <c r="HK93" t="n">
         <v>68.7</v>
       </c>
+      <c r="HL93" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="HM93" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="HN93" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="HO93" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="HP93" t="n">
+        <v>69.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -62486,6 +63881,21 @@
       <c r="HK94" t="n">
         <v>42</v>
       </c>
+      <c r="HL94" t="n">
+        <v>50</v>
+      </c>
+      <c r="HM94" t="n">
+        <v>41</v>
+      </c>
+      <c r="HN94" t="n">
+        <v>44</v>
+      </c>
+      <c r="HO94" t="n">
+        <v>40</v>
+      </c>
+      <c r="HP94" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -63147,6 +64557,21 @@
       <c r="HK95" t="n">
         <v>12</v>
       </c>
+      <c r="HL95" t="n">
+        <v>6</v>
+      </c>
+      <c r="HM95" t="n">
+        <v>12</v>
+      </c>
+      <c r="HN95" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO95" t="n">
+        <v>19</v>
+      </c>
+      <c r="HP95" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -63808,6 +65233,21 @@
       <c r="HK96" t="n">
         <v>10</v>
       </c>
+      <c r="HL96" t="n">
+        <v>2</v>
+      </c>
+      <c r="HM96" t="n">
+        <v>15</v>
+      </c>
+      <c r="HN96" t="n">
+        <v>11</v>
+      </c>
+      <c r="HO96" t="n">
+        <v>13</v>
+      </c>
+      <c r="HP96" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -64469,6 +65909,21 @@
       <c r="HK97" t="n">
         <v>26</v>
       </c>
+      <c r="HL97" t="n">
+        <v>24</v>
+      </c>
+      <c r="HM97" t="n">
+        <v>37</v>
+      </c>
+      <c r="HN97" t="n">
+        <v>38</v>
+      </c>
+      <c r="HO97" t="n">
+        <v>29</v>
+      </c>
+      <c r="HP97" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -65130,6 +66585,21 @@
       <c r="HK98" t="n">
         <v>27</v>
       </c>
+      <c r="HL98" t="n">
+        <v>35</v>
+      </c>
+      <c r="HM98" t="n">
+        <v>33</v>
+      </c>
+      <c r="HN98" t="n">
+        <v>26</v>
+      </c>
+      <c r="HO98" t="n">
+        <v>30</v>
+      </c>
+      <c r="HP98" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -65791,6 +67261,21 @@
       <c r="HK99" t="n">
         <v>32</v>
       </c>
+      <c r="HL99" t="n">
+        <v>56</v>
+      </c>
+      <c r="HM99" t="n">
+        <v>37</v>
+      </c>
+      <c r="HN99" t="n">
+        <v>55</v>
+      </c>
+      <c r="HO99" t="n">
+        <v>36</v>
+      </c>
+      <c r="HP99" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -66452,6 +67937,21 @@
       <c r="HK100" t="n">
         <v>1</v>
       </c>
+      <c r="HL100" t="n">
+        <v>13</v>
+      </c>
+      <c r="HM100" t="n">
+        <v>9</v>
+      </c>
+      <c r="HN100" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO100" t="n">
+        <v>9</v>
+      </c>
+      <c r="HP100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -67113,6 +68613,21 @@
       <c r="HK101" t="n">
         <v>5</v>
       </c>
+      <c r="HL101" t="n">
+        <v>5</v>
+      </c>
+      <c r="HM101" t="n">
+        <v>8</v>
+      </c>
+      <c r="HN101" t="n">
+        <v>7</v>
+      </c>
+      <c r="HO101" t="n">
+        <v>10</v>
+      </c>
+      <c r="HP101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -67774,8 +69289,23 @@
       <c r="HK102" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="HL102" t="n">
+        <v>50</v>
+      </c>
+      <c r="HM102" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HN102" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="HO102" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HP102" t="n">
+        <v>14.3</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>